--- a/output_analysis/_data/validatiePassengers.xlsx
+++ b/output_analysis/_data/validatiePassengers.xlsx
@@ -423,6 +423,9 @@
     <xf numFmtId="59" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -430,9 +433,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1946,8 +1946,7 @@
         <v>36.5</v>
       </c>
       <c r="X5" s="18">
-        <f>AVERAGE(C5,E5,G5,I5,K5,M5,O5,Q5,S5,U5)</f>
-        <v>829.7</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="18">
         <f>W5/W$14</f>
@@ -1955,7 +1954,7 @@
       </c>
       <c r="Z5" s="19">
         <f>X5/X$14</f>
-        <v>0.03409576566506674</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="20">
         <v>14.52783717065827</v>
@@ -1978,22 +1977,24 @@
       </c>
       <c r="AG5" s="22">
         <f>AD5-Z5</f>
-        <v>-0.03409576566506674</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="22">
         <f>Y5/AC5</f>
         <v>2.377250849415187</v>
       </c>
-      <c r="AI5" s="22"/>
+      <c r="AI5" s="22">
+        <v>1</v>
+      </c>
       <c r="AJ5" s="23">
         <f>ABS(AH5-1)</f>
         <v>1.377250849415187</v>
       </c>
-      <c r="AK5" s="23">
+      <c r="AK5" s="24">
         <f>ABS(AI5-1)</f>
-        <v>1</v>
-      </c>
-      <c r="AL5" t="s" s="24">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="s" s="25">
         <v>11</v>
       </c>
       <c r="AM5" s="22"/>
@@ -2107,18 +2108,17 @@
         <v>1.154778664034138</v>
       </c>
       <c r="AI6" s="22">
-        <f>Z6/AD6</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="26">
         <f>ABS(AH6-1)</f>
         <v>0.1547786640341384</v>
       </c>
-      <c r="AK6" s="23">
+      <c r="AK6" s="24">
         <f>ABS(AI6-1)</f>
-        <v>1</v>
-      </c>
-      <c r="AL6" t="s" s="26">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s" s="27">
         <v>13</v>
       </c>
       <c r="AM6" s="22"/>
@@ -2232,16 +2232,15 @@
         <v>1.014155509878301</v>
       </c>
       <c r="AI7" s="22">
-        <f>Z7/AD7</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="24">
         <f>ABS(AH7-1)</f>
         <v>0.01415550987830083</v>
       </c>
-      <c r="AK7" s="23">
+      <c r="AK7" s="24">
         <f>ABS(AI7-1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="s" s="28">
         <v>15</v>
@@ -2327,7 +2326,7 @@
       </c>
       <c r="Z8" s="19">
         <f>X8/X$14</f>
-        <v>8.218817805246894e-06</v>
+        <v>8.508936510570226e-06</v>
       </c>
       <c r="AA8" s="20">
         <v>9137.849474807434</v>
@@ -2350,7 +2349,7 @@
       </c>
       <c r="AG8" s="22">
         <f>AD8-Z8</f>
-        <v>-7.068808679574828e-07</v>
+        <v>-9.969995732808151e-07</v>
       </c>
       <c r="AH8" s="22">
         <f>Y8/AC8</f>
@@ -2358,15 +2357,15 @@
       </c>
       <c r="AI8" s="22">
         <f>Z8/AD8</f>
-        <v>1.094101012010433</v>
-      </c>
-      <c r="AJ8" s="27">
+        <v>1.132722037152853</v>
+      </c>
+      <c r="AJ8" s="24">
         <f>ABS(AH8-1)</f>
         <v>0.04824426560611406</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AK8" s="24">
         <f>ABS(AI8-1)</f>
-        <v>0.09410101201043264</v>
+        <v>0.1327220371528532</v>
       </c>
       <c r="AL8" s="29"/>
       <c r="AM8" s="29"/>
@@ -2450,7 +2449,7 @@
       </c>
       <c r="Z9" s="19">
         <f>X9/X$14</f>
-        <v>0.01116115457952528</v>
+        <v>0.01155513578135437</v>
       </c>
       <c r="AA9" s="20">
         <v>6855.134344787816</v>
@@ -2473,7 +2472,7 @@
       </c>
       <c r="AG9" s="22">
         <f>AD9-Z9</f>
-        <v>-0.0005480396766248934</v>
+        <v>-0.000942020878453978</v>
       </c>
       <c r="AH9" s="22">
         <f>Y9/AC9</f>
@@ -2481,15 +2480,15 @@
       </c>
       <c r="AI9" s="22">
         <f>Z9/AD9</f>
-        <v>1.05163796695305</v>
-      </c>
-      <c r="AJ9" s="27">
+        <v>1.088760075347581</v>
+      </c>
+      <c r="AJ9" s="24">
         <f>ABS(AH9-1)</f>
         <v>0.0408297470638328</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AK9" s="24">
         <f>ABS(AI9-1)</f>
-        <v>0.05163796695305001</v>
+        <v>0.08876007534758146</v>
       </c>
       <c r="AL9" s="29"/>
       <c r="AM9" s="29"/>
@@ -2573,7 +2572,7 @@
       </c>
       <c r="Z10" s="19">
         <f>X10/X$14</f>
-        <v>0.001265697942008022</v>
+        <v>0.001310376222627815</v>
       </c>
       <c r="AA10" s="20">
         <v>690.6744016461636</v>
@@ -2596,7 +2595,7 @@
       </c>
       <c r="AG10" s="22">
         <f>AD10-Z10</f>
-        <v>0.0001089865175159404</v>
+        <v>6.430823689614735e-05</v>
       </c>
       <c r="AH10" s="22">
         <f>Y10/AC10</f>
@@ -2604,15 +2603,15 @@
       </c>
       <c r="AI10" s="22">
         <f>Z10/AD10</f>
-        <v>0.92071888442408</v>
-      </c>
-      <c r="AJ10" s="25">
+        <v>0.9532196378226196</v>
+      </c>
+      <c r="AJ10" s="26">
         <f>ABS(AH10-1)</f>
         <v>0.2521488125754634</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="AK10" s="24">
         <f>ABS(AI10-1)</f>
-        <v>0.07928111557591999</v>
+        <v>0.04678036217738035</v>
       </c>
       <c r="AL10" s="29"/>
       <c r="AM10" s="29"/>
@@ -2696,7 +2695,7 @@
       </c>
       <c r="Z11" s="19">
         <f>X11/X$14</f>
-        <v>0.01183509763955553</v>
+        <v>0.01225286857522113</v>
       </c>
       <c r="AA11" s="20">
         <v>605.7349339143128</v>
@@ -2719,7 +2718,7 @@
       </c>
       <c r="AG11" s="22">
         <f>AD11-Z11</f>
-        <v>6.287147699373871e-05</v>
+        <v>-0.0003548994586718597</v>
       </c>
       <c r="AH11" s="22">
         <f>Y11/AC11</f>
@@ -2727,15 +2726,15 @@
       </c>
       <c r="AI11" s="22">
         <f>Z11/AD11</f>
-        <v>0.9947157807876398</v>
-      </c>
-      <c r="AJ11" s="25">
+        <v>1.029828574540357</v>
+      </c>
+      <c r="AJ11" s="26">
         <f>ABS(AH11-1)</f>
         <v>0.2785542881178762</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AK11" s="24">
         <f>ABS(AI11-1)</f>
-        <v>0.005284219212360219</v>
+        <v>0.02982857454035748</v>
       </c>
       <c r="AL11" s="29"/>
       <c r="AM11" s="29"/>
@@ -2819,7 +2818,7 @@
       </c>
       <c r="Z12" s="19">
         <f>X12/X$14</f>
-        <v>0.02419619961864685</v>
+        <v>0.02505030908711874</v>
       </c>
       <c r="AA12" s="20">
         <v>1261.436717474522</v>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="AG12" s="22">
         <f>AD12-Z12</f>
-        <v>0.0002664230176361096</v>
+        <v>-0.0005876864508357789</v>
       </c>
       <c r="AH12" s="22">
         <f>Y12/AC12</f>
@@ -2850,15 +2849,15 @@
       </c>
       <c r="AI12" s="22">
         <f>Z12/AD12</f>
-        <v>0.9891089756974401</v>
-      </c>
-      <c r="AJ12" s="25">
+        <v>1.024023853025641</v>
+      </c>
+      <c r="AJ12" s="26">
         <f>ABS(AH12-1)</f>
         <v>0.1293465989916798</v>
       </c>
-      <c r="AK12" s="27">
+      <c r="AK12" s="24">
         <f>ABS(AI12-1)</f>
-        <v>0.01089102430255995</v>
+        <v>0.02402385302564092</v>
       </c>
       <c r="AL12" s="29"/>
       <c r="AM12" s="29"/>
@@ -2942,7 +2941,7 @@
       </c>
       <c r="Z13" s="19">
         <f>X13/X$14</f>
-        <v>0.9174378657373924</v>
+        <v>0.9498228013971673</v>
       </c>
       <c r="AA13" s="20">
         <v>0</v>
@@ -2965,22 +2964,22 @@
       </c>
       <c r="AG13" s="22">
         <f>AD13-Z13</f>
-        <v>0.03418964234967714</v>
+        <v>0.00180470668990218</v>
       </c>
       <c r="AH13" s="22">
         <v>1</v>
       </c>
       <c r="AI13" s="22">
         <f>Z13/AD13</f>
-        <v>0.9640724526570232</v>
-      </c>
-      <c r="AJ13" s="27">
+        <v>0.9981035576687669</v>
+      </c>
+      <c r="AJ13" s="24">
         <f>ABS(AH13-1)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="AK13" s="24">
         <f>ABS(AI13-1)</f>
-        <v>0.03592754734297676</v>
+        <v>0.001896442331233095</v>
       </c>
       <c r="AL13" s="29"/>
       <c r="AM13" s="29"/>
@@ -3016,7 +3015,7 @@
       </c>
       <c r="X14" s="18">
         <f>SUM(X5:X13)</f>
-        <v>24334.4</v>
+        <v>23504.7</v>
       </c>
       <c r="Y14" s="13"/>
       <c r="Z14" s="30"/>
@@ -3031,11 +3030,20 @@
       <c r="AC14" s="32"/>
       <c r="AD14" s="13"/>
       <c r="AE14" s="13"/>
-      <c r="AF14" s="22"/>
+      <c r="AF14" s="22">
+        <f>AA14-W14</f>
+        <v>-1264.544324823346</v>
+      </c>
       <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
+      <c r="AH14" s="22">
+        <f>W14/AA14</f>
+        <v>1.056858609413187</v>
+      </c>
       <c r="AI14" s="22"/>
-      <c r="AJ14" s="22"/>
+      <c r="AJ14" s="24">
+        <f>ABS(AH14-1)</f>
+        <v>0.0568586094131871</v>
+      </c>
       <c r="AK14" s="22"/>
       <c r="AL14" s="22"/>
       <c r="AM14" s="22"/>
@@ -3151,11 +3159,11 @@
       <c r="AI15" s="22">
         <v>1</v>
       </c>
-      <c r="AJ15" s="27">
+      <c r="AJ15" s="24">
         <f>ABS(AH15-1)</f>
         <v>0.01357101330999866</v>
       </c>
-      <c r="AK15" s="27">
+      <c r="AK15" s="24">
         <f>ABS(AI15-1)</f>
         <v>0</v>
       </c>
@@ -3274,11 +3282,11 @@
         <f>Z16/AD16</f>
         <v>1.039666257178707</v>
       </c>
-      <c r="AJ16" s="27">
+      <c r="AJ16" s="24">
         <f>ABS(AH16-1)</f>
         <v>0.01085959407055515</v>
       </c>
-      <c r="AK16" s="27">
+      <c r="AK16" s="24">
         <f>ABS(AI16-1)</f>
         <v>0.03966625717870698</v>
       </c>
@@ -3397,11 +3405,11 @@
         <f>Z17/AD17</f>
         <v>1.270414931313733</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AJ17" s="26">
         <f>ABS(AH17-1)</f>
         <v>0.408414462964368</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AK17" s="26">
         <f>ABS(AI17-1)</f>
         <v>0.270414931313733</v>
       </c>
@@ -3524,7 +3532,7 @@
         <f>ABS(AH18-1)</f>
         <v>1.183697072599962</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18" s="26">
         <f>ABS(AI18-1)</f>
         <v>0.2145549646204625</v>
       </c>
@@ -3647,7 +3655,7 @@
         <f>ABS(AH19-1)</f>
         <v>2.113803139483828</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AK19" s="26">
         <f>ABS(AI19-1)</f>
         <v>0.2030016389896871</v>
       </c>
@@ -3770,7 +3778,7 @@
         <f>ABS(AH20-1)</f>
         <v>1.651690299364095</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AK20" s="26">
         <f>ABS(AI20-1)</f>
         <v>0.402071469180622</v>
       </c>
@@ -3893,7 +3901,7 @@
         <f>ABS(AH21-1)</f>
         <v>1.778327337258848</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AK21" s="26">
         <f>ABS(AI21-1)</f>
         <v>0.2948551382859649</v>
       </c>
@@ -4011,11 +4019,11 @@
         <f>Z22/AD22</f>
         <v>0.5853413039782537</v>
       </c>
-      <c r="AJ22" s="27">
+      <c r="AJ22" s="24">
         <f>ABS(AH22-1)</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AK22" s="26">
         <f>ABS(AI22-1)</f>
         <v>0.4146586960217463</v>
       </c>
@@ -4133,7 +4141,7 @@
         <f>Z23/AD23</f>
         <v>52.35453860073309</v>
       </c>
-      <c r="AJ23" s="27">
+      <c r="AJ23" s="24">
         <f>ABS(AH23-1)</f>
         <v>0</v>
       </c>
@@ -4190,11 +4198,20 @@
       <c r="AC24" s="32"/>
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
+      <c r="AF24" s="22">
+        <f>AA24-W24</f>
+        <v>-2079.455675176643</v>
+      </c>
       <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
+      <c r="AH24" s="22">
+        <f>W24/AA24</f>
+        <v>1.091365109774</v>
+      </c>
       <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
+      <c r="AJ24" s="24">
+        <f>ABS(AH24-1)</f>
+        <v>0.09136510977400025</v>
+      </c>
       <c r="AK24" s="13"/>
       <c r="AL24" s="13"/>
       <c r="AM24" s="13"/>
@@ -4276,7 +4293,10 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
+      <c r="AJ26" s="24">
+        <f>AJ24/2+AJ14/2</f>
+        <v>0.07411185959359368</v>
+      </c>
       <c r="AK26" s="13"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="13"/>

--- a/output_analysis/_data/validatiePassengers.xlsx
+++ b/output_analysis/_data/validatiePassengers.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Werkblad 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Werkblad 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Tabel 1</t>
   </si>
@@ -85,6 +86,163 @@
   <si>
     <t>PR</t>
   </si>
+  <si/>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>spitsFreq</t>
+  </si>
+  <si>
+    <t>dayFreq</t>
+  </si>
+  <si>
+    <t>dalFreq</t>
+  </si>
+  <si>
+    <t>tramstop</t>
+  </si>
+  <si>
+    <t>totalArriving</t>
+  </si>
+  <si>
+    <t>totalLeaving</t>
+  </si>
+  <si>
+    <t>totalArrMorning</t>
+  </si>
+  <si>
+    <t>chi squared on 1st and 2nd</t>
+  </si>
+  <si>
+    <t>chi squared on 1st and 5th</t>
+  </si>
+  <si>
+    <t>chi squared on 1st and 3rd</t>
+  </si>
+  <si>
+    <t>chi squared on 1st and 4th</t>
+  </si>
+  <si>
+    <t>chi squared on 2nd and 3rd</t>
+  </si>
+  <si>
+    <t>totalLeaveMorning</t>
+  </si>
+  <si>
+    <t>totalArrEve</t>
+  </si>
+  <si>
+    <t>totalLeaveEve</t>
+  </si>
+  <si>
+    <t>maxQueueLength</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>maxWaitingTime</t>
+  </si>
+  <si>
+    <t>sum no maxtram</t>
+  </si>
+  <si>
+    <t>averageWaitTime</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>maxTramDelay</t>
+  </si>
+  <si>
+    <t>&lt;0.5</t>
+  </si>
+  <si>
+    <t>&gt;0.99</t>
+  </si>
+  <si>
+    <t>averageTramDelay/total</t>
+  </si>
+  <si>
+    <t>m=4</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>averageTramDelay/delayed</t>
+  </si>
+  <si>
+    <t>m=5</t>
+  </si>
+  <si>
+    <t>fractionOfRunsDelayed</t>
+  </si>
+  <si>
+    <t>passengersNotArrived</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>m-st</t>
+  </si>
+  <si>
+    <t>m+st</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>4_12_6_6</t>
+  </si>
+  <si>
+    <t>3_11_7_5</t>
+  </si>
+  <si>
+    <t>4_11_7_7</t>
+  </si>
+  <si>
+    <t>4_13_5_5</t>
+  </si>
+  <si>
+    <t>3_12_7_6</t>
+  </si>
+  <si>
+    <t>3_14_7_5</t>
+  </si>
+  <si>
+    <t>3_13_7_5</t>
+  </si>
+  <si>
+    <t>3_15_6_4</t>
+  </si>
+  <si>
+    <t>3_12_4_4</t>
+  </si>
+  <si>
+    <t>3_15_7_6</t>
+  </si>
+  <si>
+    <t>avg not arr</t>
+  </si>
+  <si>
+    <t>rank wait</t>
+  </si>
+  <si>
+    <t>rank delay</t>
+  </si>
+  <si>
+    <t>rankoverall</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +252,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -102,6 +260,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -127,8 +290,13 @@
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,12 +312,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -171,8 +333,56 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="28"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -184,6 +394,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -197,7 +429,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -206,7 +438,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,43 +447,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -260,54 +477,84 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -321,26 +568,131 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="25"/>
+      </right>
+      <top style="thin">
+        <color indexed="25"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="25"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="25"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="25"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="25"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="25"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="24"/>
+      </left>
+      <right style="thin">
+        <color indexed="24"/>
+      </right>
+      <top style="thin">
+        <color indexed="24"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="24"/>
       </bottom>
       <diagonal/>
     </border>
@@ -350,111 +702,165 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,17 +879,837 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffff5f5d"/>
+      <rgbColor rgb="ffffe061"/>
+      <rgbColor rgb="ffffc071"/>
+      <rgbColor rgb="ff878787"/>
+      <rgbColor rgb="ff4498c7"/>
+      <rgbColor rgb="ff6abe33"/>
+      <rgbColor rgb="fff0cf2a"/>
+      <rgbColor rgb="fffda533"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="fff1d130"/>
+      <rgbColor rgb="ff6ec038"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff5f5d"/>
-      <rgbColor rgb="ffffe061"/>
-      <rgbColor rgb="ffffc071"/>
+      <rgbColor rgb="ffb6df9b"/>
+      <rgbColor rgb="ff92cf69"/>
+      <rgbColor rgb="ffff9690"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101397"/>
+          <c:y val="0.22"/>
+          <c:w val="0.888269"/>
+          <c:h val="0.660833"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maxWaitingTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="47625" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="4498C7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="4498C7"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Werkblad 2'!$B$24:$K$24</c:f>
+              <c:numCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>21.016945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.244110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.077464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.641458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.695199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.556600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.835193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.105661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.169156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.552986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>averageTramDelay/total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="47625" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="6BBF33"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="6BBF33"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Werkblad 2'!$B$25:$K$25</c:f>
+              <c:numCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.631413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.751492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.438978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.075498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.713209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.110894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.928125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.113944</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.188390</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.642460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fractionOfRunsDelayed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="47625" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="F0CF2A"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="F0CF2A"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Werkblad 2'!$B$26:$K$26</c:f>
+              <c:numCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.215693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.943077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.624837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.272348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.796538</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.743357</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.795455</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.407143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.525000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.348252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>averageWaitTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="47625" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="FEA634"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat">
+                <a:solidFill>
+                  <a:srgbClr val="FEA634"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Werkblad 2'!$B$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Werkblad 2'!$B$27:$K$27</c:f>
+              <c:numCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.569871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.921227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.047149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.280917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.152074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.652468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.037916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.406996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.694047</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.009375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="2094734552"/>
+        <c:axId val="2094734553"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2094734552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="888888"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734553"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2094734553"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="888888"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="888888"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2094734552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="6"/>
+        <c:minorUnit val="3"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0201295"/>
+          <c:y val="0"/>
+          <c:w val="0.960058"/>
+          <c:h val="0.318333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1800" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="12700" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="888888"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>729639</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>513453</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="15664839" y="2082799"/>
+        <a:ext cx="4762215" cy="3810001"/>
+      </xdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,10 +1723,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="404040"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BFBFBF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="499BC9"/>
@@ -694,14 +1920,15 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr>
-        <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
-          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-        </a:blipFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
@@ -716,7 +1943,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -731,20 +1958,14 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
-                <a:srgbClr val="000000">
-                  <a:alpha val="31034"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
@@ -997,14 +2218,20 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="6350" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1293,7 +2520,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1574,11 +2801,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AM27"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1628,2719 +2853,2719 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="4"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5">
         <v>6</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5">
         <v>7</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5">
         <v>8</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5">
         <v>9</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5">
         <v>10</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="3"/>
-      <c r="W2" t="s" s="5">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="X2" s="5"/>
-      <c r="Y2" t="s" s="5">
+      <c r="X2" s="6"/>
+      <c r="Y2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="Z2" t="s" s="5">
+      <c r="Z2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="AA2" t="s" s="5">
+      <c r="AA2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" t="s" s="5">
+      <c r="AB2" s="6"/>
+      <c r="AC2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="AD2" t="s" s="5">
+      <c r="AD2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" t="s" s="5">
+      <c r="AE2" s="6"/>
+      <c r="AF2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" t="s" s="5">
+      <c r="AG2" s="5"/>
+      <c r="AH2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" t="s" s="5">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
     </row>
     <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="J3" t="s" s="8">
+      <c r="J3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="K3" t="s" s="8">
+      <c r="K3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="L3" t="s" s="8">
+      <c r="L3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="M3" t="s" s="8">
+      <c r="M3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="N3" t="s" s="8">
+      <c r="N3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="O3" t="s" s="8">
+      <c r="O3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="P3" t="s" s="8">
+      <c r="P3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="Q3" t="s" s="8">
+      <c r="Q3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="R3" t="s" s="8">
+      <c r="R3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="S3" t="s" s="8">
+      <c r="S3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="T3" t="s" s="8">
+      <c r="T3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="U3" t="s" s="8">
+      <c r="U3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" t="s" s="8">
+      <c r="V3" s="10"/>
+      <c r="W3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="X3" t="s" s="8">
+      <c r="X3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" t="s" s="8">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="AB3" t="s" s="8">
+      <c r="AB3" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
     </row>
     <row r="4" ht="20.65" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
     </row>
     <row r="5" ht="21" customHeight="1">
-      <c r="A5" t="s" s="15">
+      <c r="A5" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>41</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <v>906</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>35</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="13">
         <v>848</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <v>34</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>905</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="13">
         <v>38</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>770</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <v>44</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>832</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="13">
         <v>36</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <v>745</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <v>33</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="13">
         <v>692</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="13">
         <v>42</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="13">
         <v>966</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="13">
         <v>33</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="13">
         <v>860</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="13">
         <v>29</v>
       </c>
-      <c r="U5" s="17">
+      <c r="U5" s="13">
         <v>773</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="18">
+      <c r="V5" s="14"/>
+      <c r="W5" s="14">
         <f>AVERAGE(B5,D5,F5,H5,J5,L5,N5,P5,R5,T5)</f>
         <v>36.5</v>
       </c>
-      <c r="X5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18">
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14">
         <f>W5/W$14</f>
         <v>0.001552880913179066</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="17">
         <f>X5/X$14</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="18">
         <v>14.52783717065827</v>
       </c>
-      <c r="AB5" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21">
+      <c r="AB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="19">
         <f>AA5/AA$14</f>
-        <v>0.0006532255161717919</v>
-      </c>
-      <c r="AD5" s="18">
+        <v>0.0006532255161717915</v>
+      </c>
+      <c r="AD5" s="14">
         <f>AB5/AB$14</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20">
         <f>AC5-Y5</f>
-        <v>-0.0008996553970072745</v>
-      </c>
-      <c r="AG5" s="22">
+        <v>-0.0008996553970072749</v>
+      </c>
+      <c r="AG5" s="20">
         <f>AD5-Z5</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="22">
+      <c r="AH5" s="20">
         <f>Y5/AC5</f>
-        <v>2.377250849415187</v>
-      </c>
-      <c r="AI5" s="22">
+        <v>2.377250849415188</v>
+      </c>
+      <c r="AI5" s="20">
         <v>1</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AJ5" s="21">
         <f>ABS(AH5-1)</f>
-        <v>1.377250849415187</v>
-      </c>
-      <c r="AK5" s="24">
+        <v>1.377250849415188</v>
+      </c>
+      <c r="AK5" s="22">
         <f>ABS(AI5-1)</f>
         <v>0</v>
       </c>
-      <c r="AL5" t="s" s="25">
+      <c r="AL5" t="s" s="23">
         <v>11</v>
       </c>
-      <c r="AM5" s="22"/>
+      <c r="AM5" s="20"/>
     </row>
     <row r="6" ht="21" customHeight="1">
-      <c r="A6" t="s" s="15">
+      <c r="A6" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>1246</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
         <v>1177</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
         <v>1242</v>
       </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
         <v>1249</v>
       </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>1240</v>
       </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
         <v>1255</v>
       </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17">
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
         <v>1222</v>
       </c>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
         <v>1231</v>
       </c>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="17">
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
         <v>1273</v>
       </c>
-      <c r="S6" s="17">
-        <v>0</v>
-      </c>
-      <c r="T6" s="17">
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
         <v>1247</v>
       </c>
-      <c r="U6" s="17">
-        <v>0</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="18">
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14">
         <f>AVERAGE(B6,D6,F6,H6,J6,L6,N6,P6,R6,T6)</f>
         <v>1238.2</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="14">
         <f>AVERAGE(C6,E6,G6,I6,K6,M6,O6,Q6,S6,U6)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="14">
         <f>W6/W$14</f>
         <v>0.05267882593694028</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="17">
         <f>X6/X$14</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="18">
         <v>1014.553980007073</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="18">
         <v>0.02088333086342828</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="19">
         <f>AA6/AA$14</f>
-        <v>0.04561811503592428</v>
-      </c>
-      <c r="AD6" s="18">
+        <v>0.04561811503592429</v>
+      </c>
+      <c r="AD6" s="14">
         <f>AB6/AB$14</f>
         <v>9.389921171611764e-07</v>
       </c>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f>AC6-Y6</f>
-        <v>-0.007060710901016003</v>
-      </c>
-      <c r="AG6" s="22">
+        <v>-0.007060710901015996</v>
+      </c>
+      <c r="AG6" s="20">
         <f>AD6-Z6</f>
         <v>9.389921171611764e-07</v>
       </c>
-      <c r="AH6" s="22">
+      <c r="AH6" s="20">
         <f>Y6/AC6</f>
         <v>1.154778664034138</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="20">
         <v>1</v>
       </c>
-      <c r="AJ6" s="26">
+      <c r="AJ6" s="24">
         <f>ABS(AH6-1)</f>
-        <v>0.1547786640341384</v>
-      </c>
-      <c r="AK6" s="24">
+        <v>0.1547786640341382</v>
+      </c>
+      <c r="AK6" s="22">
         <f>ABS(AI6-1)</f>
         <v>0</v>
       </c>
-      <c r="AL6" t="s" s="27">
+      <c r="AL6" t="s" s="25">
         <v>13</v>
       </c>
-      <c r="AM6" s="22"/>
+      <c r="AM6" s="20"/>
     </row>
     <row r="7" ht="21" customHeight="1">
-      <c r="A7" t="s" s="15">
+      <c r="A7" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>2856</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
         <v>2814</v>
       </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
         <v>2867</v>
       </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
         <v>2870</v>
       </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>2904</v>
       </c>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
         <v>2869</v>
       </c>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
         <v>2736</v>
       </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
         <v>2884</v>
       </c>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17">
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
         <v>2937</v>
       </c>
-      <c r="S7" s="17">
-        <v>0</v>
-      </c>
-      <c r="T7" s="17">
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
         <v>2776</v>
       </c>
-      <c r="U7" s="17">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="18">
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14">
         <f>AVERAGE(B7,D7,F7,H7,J7,L7,N7,P7,R7,T7)</f>
         <v>2851.3</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="14">
         <f>AVERAGE(C7,E7,G7,I7,K7,M7,O7,Q7,S7,U7)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="14">
         <f>W7/W$14</f>
         <v>0.1213076533629445</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="17">
         <f>X7/X$14</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA7" s="18">
         <v>2660.243985368675</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="18">
         <v>0.3480555143904713</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AC7" s="19">
         <f>AA7/AA$14</f>
         <v>0.1196144498366936</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="14">
         <f>AB7/AB$14</f>
         <v>1.564986861935294e-05</v>
       </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20">
         <f>AC7-Y7</f>
         <v>-0.001693203526250825</v>
       </c>
-      <c r="AG7" s="22">
+      <c r="AG7" s="20">
         <f>AD7-Z7</f>
         <v>1.564986861935294e-05</v>
       </c>
-      <c r="AH7" s="22">
+      <c r="AH7" s="20">
         <f>Y7/AC7</f>
         <v>1.014155509878301</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="20">
         <v>1</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7" s="22">
         <f>ABS(AH7-1)</f>
         <v>0.01415550987830083</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="22">
         <f>ABS(AI7-1)</f>
         <v>0</v>
       </c>
-      <c r="AL7" t="s" s="28">
+      <c r="AL7" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="AM7" s="22"/>
+      <c r="AM7" s="20"/>
     </row>
     <row r="8" ht="21" customHeight="1">
-      <c r="A8" t="s" s="15">
+      <c r="A8" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>9454</v>
       </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
         <v>9168</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>9251</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <v>9157</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>9148</v>
       </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
         <v>9024</v>
       </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
         <v>9051</v>
       </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
         <v>9290</v>
       </c>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17">
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
         <v>9242</v>
       </c>
-      <c r="S8" s="17">
-        <v>0</v>
-      </c>
-      <c r="T8" s="17">
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
         <v>9130</v>
       </c>
-      <c r="U8" s="17">
-        <v>0</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="18">
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14">
         <f>AVERAGE(B8,D8,F8,H8,J8,L8,N8,P8,R8,T8)</f>
         <v>9191.5</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="14">
         <f>AVERAGE(C8,E8,G8,I8,K8,M8,O8,Q8,S8,U8)</f>
         <v>0.2</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="14">
         <f>W8/W$14</f>
         <v>0.3910494496845312</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="17">
         <f>X8/X$14</f>
         <v>8.508936510570226e-06</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="18">
         <v>9137.849474807434</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="18">
         <v>0.1670666469074262</v>
       </c>
-      <c r="AC8" s="21">
+      <c r="AC8" s="19">
         <f>AA8/AA$14</f>
-        <v>0.4108716507324921</v>
-      </c>
-      <c r="AD8" s="18">
+        <v>0.410871650732492</v>
+      </c>
+      <c r="AD8" s="14">
         <f>AB8/AB$14</f>
-        <v>7.511936937289411e-06</v>
-      </c>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22">
+        <v>7.51193693728941e-06</v>
+      </c>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20">
         <f>AC8-Y8</f>
-        <v>0.0198222010479609</v>
-      </c>
-      <c r="AG8" s="22">
+        <v>0.01982220104796084</v>
+      </c>
+      <c r="AG8" s="20">
         <f>AD8-Z8</f>
-        <v>-9.969995732808151e-07</v>
-      </c>
-      <c r="AH8" s="22">
+        <v>-9.969995732808168e-07</v>
+      </c>
+      <c r="AH8" s="20">
         <f>Y8/AC8</f>
-        <v>0.9517557343938859</v>
-      </c>
-      <c r="AI8" s="22">
+        <v>0.9517557343938861</v>
+      </c>
+      <c r="AI8" s="20">
         <f>Z8/AD8</f>
         <v>1.132722037152853</v>
       </c>
-      <c r="AJ8" s="24">
+      <c r="AJ8" s="22">
         <f>ABS(AH8-1)</f>
-        <v>0.04824426560611406</v>
-      </c>
-      <c r="AK8" s="24">
+        <v>0.04824426560611395</v>
+      </c>
+      <c r="AK8" s="22">
         <f>ABS(AI8-1)</f>
-        <v>0.1327220371528532</v>
-      </c>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
+        <v>0.1327220371528535</v>
+      </c>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
     </row>
     <row r="9" ht="21" customHeight="1">
-      <c r="A9" t="s" s="15">
+      <c r="A9" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>7001</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="13">
         <v>283</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>6940</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>275</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>6965</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>262</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <v>6838</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>266</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>7081</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="13">
         <v>234</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="13">
         <v>6996</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="13">
         <v>291</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <v>6854</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="13">
         <v>291</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="13">
         <v>6990</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="13">
         <v>260</v>
       </c>
-      <c r="R9" s="17">
+      <c r="R9" s="13">
         <v>6874</v>
       </c>
-      <c r="S9" s="17">
+      <c r="S9" s="13">
         <v>306</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="13">
         <v>6952</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="13">
         <v>248</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="18">
+      <c r="V9" s="14"/>
+      <c r="W9" s="14">
         <f>AVERAGE(B9,D9,F9,H9,J9,L9,N9,P9,R9,T9)</f>
         <v>6949.1</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="14">
         <f>AVERAGE(C9,E9,G9,I9,K9,M9,O9,Q9,S9,U9)</f>
         <v>271.6</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="14">
         <f>W9/W$14</f>
         <v>0.2956472535280179</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="17">
         <f>X9/X$14</f>
         <v>0.01155513578135437</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="18">
         <v>6855.134344787816</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="18">
         <v>236.037327639042</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC9" s="19">
         <f>AA9/AA$14</f>
-        <v>0.3082323003898383</v>
-      </c>
-      <c r="AD9" s="18">
+        <v>0.3082323003898382</v>
+      </c>
+      <c r="AD9" s="14">
         <f>AB9/AB$14</f>
         <v>0.01061311490290039</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
         <f>AC9-Y9</f>
-        <v>0.01258504686182044</v>
-      </c>
-      <c r="AG9" s="22">
+        <v>0.01258504686182038</v>
+      </c>
+      <c r="AG9" s="20">
         <f>AD9-Z9</f>
-        <v>-0.000942020878453978</v>
-      </c>
-      <c r="AH9" s="22">
+        <v>-0.0009420208784539797</v>
+      </c>
+      <c r="AH9" s="20">
         <f>Y9/AC9</f>
-        <v>0.9591702529361672</v>
-      </c>
-      <c r="AI9" s="22">
+        <v>0.9591702529361673</v>
+      </c>
+      <c r="AI9" s="20">
         <f>Z9/AD9</f>
-        <v>1.088760075347581</v>
-      </c>
-      <c r="AJ9" s="24">
+        <v>1.088760075347582</v>
+      </c>
+      <c r="AJ9" s="22">
         <f>ABS(AH9-1)</f>
-        <v>0.0408297470638328</v>
-      </c>
-      <c r="AK9" s="24">
+        <v>0.04082974706383269</v>
+      </c>
+      <c r="AK9" s="22">
         <f>ABS(AI9-1)</f>
-        <v>0.08876007534758146</v>
-      </c>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
+        <v>0.08876007534758168</v>
+      </c>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
     </row>
     <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="15">
+      <c r="A10" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>925</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="13">
         <v>40</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
         <v>909</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>33</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>928</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>34</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="13">
         <v>891</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>23</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>906</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="13">
         <v>20</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="13">
         <v>881</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <v>35</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <v>886</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="13">
         <v>30</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="13">
         <v>904</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="13">
         <v>29</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="13">
         <v>962</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="13">
         <v>29</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="13">
         <v>948</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="13">
         <v>35</v>
       </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="18">
+      <c r="V10" s="14"/>
+      <c r="W10" s="14">
         <f>AVERAGE(B10,D10,F10,H10,J10,L10,N10,P10,R10,T10)</f>
         <v>914</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="14">
         <f>AVERAGE(C10,E10,G10,I10,K10,M10,O10,Q10,S10,U10)</f>
         <v>30.8</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="14">
         <f>W10/W$14</f>
         <v>0.03888583985330594</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="17">
         <f>X10/X$14</f>
         <v>0.001310376222627815</v>
       </c>
-      <c r="AA10" s="20">
+      <c r="AA10" s="18">
         <v>690.6744016461636</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="18">
         <v>30.573196384059</v>
       </c>
-      <c r="AC10" s="21">
+      <c r="AC10" s="19">
         <f>AA10/AA$14</f>
-        <v>0.0310552862908716</v>
-      </c>
-      <c r="AD10" s="18">
+        <v>0.03105528629087159</v>
+      </c>
+      <c r="AD10" s="14">
         <f>AB10/AB$14</f>
         <v>0.001374684459523962</v>
       </c>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f>AC10-Y10</f>
-        <v>-0.007830553562434343</v>
-      </c>
-      <c r="AG10" s="22">
+        <v>-0.007830553562434346</v>
+      </c>
+      <c r="AG10" s="20">
         <f>AD10-Z10</f>
         <v>6.430823689614735e-05</v>
       </c>
-      <c r="AH10" s="22">
+      <c r="AH10" s="20">
         <f>Y10/AC10</f>
-        <v>1.252148812575463</v>
-      </c>
-      <c r="AI10" s="22">
+        <v>1.252148812575464</v>
+      </c>
+      <c r="AI10" s="20">
         <f>Z10/AD10</f>
         <v>0.9532196378226196</v>
       </c>
-      <c r="AJ10" s="26">
+      <c r="AJ10" s="24">
         <f>ABS(AH10-1)</f>
-        <v>0.2521488125754634</v>
-      </c>
-      <c r="AK10" s="24">
+        <v>0.2521488125754636</v>
+      </c>
+      <c r="AK10" s="22">
         <f>ABS(AI10-1)</f>
         <v>0.04678036217738035</v>
       </c>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
     </row>
     <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="15">
+      <c r="A11" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>845</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>299</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>803</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>296</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>820</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>290</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>815</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>279</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>812</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <v>279</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <v>776</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="13">
         <v>295</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <v>821</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="13">
         <v>271</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="13">
         <v>830</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="13">
         <v>306</v>
       </c>
-      <c r="R11" s="17">
+      <c r="R11" s="13">
         <v>827</v>
       </c>
-      <c r="S11" s="17">
+      <c r="S11" s="13">
         <v>265</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="13">
         <v>836</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="13">
         <v>300</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="18">
+      <c r="V11" s="14"/>
+      <c r="W11" s="14">
         <f>AVERAGE(B11,D11,F11,H11,J11,L11,N11,P11,R11,T11)</f>
         <v>818.5</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="14">
         <f>AVERAGE(C11,E11,G11,I11,K11,M11,O11,Q11,S11,U11)</f>
         <v>288</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="14">
         <f>W11/W$14</f>
         <v>0.03482282266950865</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="17">
         <f>X11/X$14</f>
         <v>0.01225286857522113</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="18">
         <v>605.7349339143128</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="18">
         <v>264.6126853704997</v>
       </c>
-      <c r="AC11" s="21">
+      <c r="AC11" s="19">
         <f>AA11/AA$14</f>
-        <v>0.0272360923530047</v>
-      </c>
-      <c r="AD11" s="18">
+        <v>0.02723609235300469</v>
+      </c>
+      <c r="AD11" s="14">
         <f>AB11/AB$14</f>
         <v>0.01189796911654927</v>
       </c>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20">
         <f>AC11-Y11</f>
-        <v>-0.007586730316503955</v>
-      </c>
-      <c r="AG11" s="22">
+        <v>-0.007586730316503958</v>
+      </c>
+      <c r="AG11" s="20">
         <f>AD11-Z11</f>
         <v>-0.0003548994586718597</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AH11" s="20">
         <f>Y11/AC11</f>
         <v>1.278554288117876</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AI11" s="20">
         <f>Z11/AD11</f>
         <v>1.029828574540357</v>
       </c>
-      <c r="AJ11" s="26">
+      <c r="AJ11" s="24">
         <f>ABS(AH11-1)</f>
-        <v>0.2785542881178762</v>
-      </c>
-      <c r="AK11" s="24">
+        <v>0.2785542881178764</v>
+      </c>
+      <c r="AK11" s="22">
         <f>ABS(AI11-1)</f>
         <v>0.02982857454035748</v>
       </c>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
     </row>
     <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="15">
+      <c r="A12" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>1477</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>590</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>1504</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>571</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <v>1501</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="13">
         <v>586</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="13">
         <v>1533</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="13">
         <v>586</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>1539</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="13">
         <v>600</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="13">
         <v>1456</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="13">
         <v>576</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="13">
         <v>1481</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="13">
         <v>602</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="13">
         <v>1508</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="13">
         <v>580</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="13">
         <v>1509</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="13">
         <v>592</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="13">
         <v>1548</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="13">
         <v>605</v>
       </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="18">
+      <c r="V12" s="14"/>
+      <c r="W12" s="14">
         <f>AVERAGE(B12,D12,F12,H12,J12,L12,N12,P12,R12,T12)</f>
         <v>1505.6</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="14">
         <f>AVERAGE(C12,E12,G12,I12,K12,M12,O12,Q12,S12,U12)</f>
         <v>588.8</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="14">
         <f>W12/W$14</f>
         <v>0.06405527405157267</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="17">
         <f>X12/X$14</f>
         <v>0.02505030908711874</v>
       </c>
-      <c r="AA12" s="20">
+      <c r="AA12" s="18">
         <v>1261.436717474522</v>
       </c>
-      <c r="AB12" s="20">
+      <c r="AB12" s="18">
         <v>544.0525356540335</v>
       </c>
-      <c r="AC12" s="21">
+      <c r="AC12" s="19">
         <f>AA12/AA$14</f>
         <v>0.05671887984500371</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="14">
         <f>AB12/AB$14</f>
         <v>0.02446262263628296</v>
       </c>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22">
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <f>AC12-Y12</f>
         <v>-0.007336394206568959</v>
       </c>
-      <c r="AG12" s="22">
+      <c r="AG12" s="20">
         <f>AD12-Z12</f>
         <v>-0.0005876864508357789</v>
       </c>
-      <c r="AH12" s="22">
+      <c r="AH12" s="20">
         <f>Y12/AC12</f>
         <v>1.12934659899168</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AI12" s="20">
         <f>Z12/AD12</f>
         <v>1.024023853025641</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AJ12" s="24">
         <f>ABS(AH12-1)</f>
         <v>0.1293465989916798</v>
       </c>
-      <c r="AK12" s="24">
+      <c r="AK12" s="22">
         <f>ABS(AI12-1)</f>
         <v>0.02402385302564092</v>
       </c>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
     </row>
     <row r="13" ht="33" customHeight="1">
-      <c r="A13" t="s" s="15">
+      <c r="A13" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
         <v>22633</v>
       </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
         <v>22175</v>
       </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
         <v>22435</v>
       </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>22236</v>
       </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
         <v>22541</v>
       </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
         <v>22096</v>
       </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
         <v>21890</v>
       </c>
-      <c r="P13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17">
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
         <v>22504</v>
       </c>
-      <c r="R13" s="17">
-        <v>0</v>
-      </c>
-      <c r="S13" s="17">
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
         <v>22465</v>
       </c>
-      <c r="T13" s="17">
-        <v>0</v>
-      </c>
-      <c r="U13" s="17">
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
         <v>22278</v>
       </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="18">
+      <c r="V13" s="14"/>
+      <c r="W13" s="14">
         <f>AVERAGE(B13,D13,F13,H13,J13,L13,N13,P13,R13,T13)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="14">
         <f>AVERAGE(C13,E13,G13,I13,K13,M13,O13,Q13,S13,U13)</f>
         <v>22325.3</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="14">
         <f>W13/W$14</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="17">
         <f>X13/X$14</f>
         <v>0.9498228013971673</v>
       </c>
-      <c r="AA13" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="20">
+      <c r="AA13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="18">
         <v>21164.343924636858</v>
       </c>
-      <c r="AC13" s="21">
+      <c r="AC13" s="19">
         <f>AA13/AA$14</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="14">
         <f>AB13/AB$14</f>
         <v>0.9516275080870695</v>
       </c>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22">
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20">
         <f>AC13-Y13</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="22">
+      <c r="AG13" s="20">
         <f>AD13-Z13</f>
         <v>0.00180470668990218</v>
       </c>
-      <c r="AH13" s="22">
+      <c r="AH13" s="20">
         <v>1</v>
       </c>
-      <c r="AI13" s="22">
+      <c r="AI13" s="20">
         <f>Z13/AD13</f>
         <v>0.9981035576687669</v>
       </c>
-      <c r="AJ13" s="24">
+      <c r="AJ13" s="22">
         <f>ABS(AH13-1)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="24">
+      <c r="AK13" s="22">
         <f>ABS(AI13-1)</f>
         <v>0.001896442331233095</v>
       </c>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
     </row>
     <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="15">
+      <c r="A14" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="18">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14">
         <f>SUM(W5:W13)</f>
         <v>23504.7</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="14">
         <f>SUM(X5:X13)</f>
         <v>23504.7</v>
       </c>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="31">
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="27">
         <f>SUM(AA5:AA13)</f>
-        <v>22240.155675176651</v>
-      </c>
-      <c r="AB14" s="31">
+        <v>22240.155675176655</v>
+      </c>
+      <c r="AB14" s="27">
         <f>SUM(AB5:AB13)</f>
         <v>22240.155675176655</v>
       </c>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="22">
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="20">
         <f>AA14-W14</f>
-        <v>-1264.544324823346</v>
-      </c>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22">
+        <v>-1264.544324823342</v>
+      </c>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20">
         <f>W14/AA14</f>
         <v>1.056858609413187</v>
       </c>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="24">
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="22">
         <f>ABS(AH14-1)</f>
-        <v>0.0568586094131871</v>
-      </c>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="22"/>
-      <c r="AM14" s="22"/>
+        <v>0.05685860941318688</v>
+      </c>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
     </row>
     <row r="15" ht="33" customHeight="1">
-      <c r="A15" t="s" s="15">
+      <c r="A15" t="s" s="16">
         <v>21</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>21672</v>
       </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13">
         <v>21667</v>
       </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
         <v>21797</v>
       </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
         <v>21404</v>
       </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
         <v>21348</v>
       </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
         <v>21661</v>
       </c>
-      <c r="M15" s="17">
-        <v>0</v>
-      </c>
-      <c r="N15" s="17">
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
         <v>21334</v>
       </c>
-      <c r="O15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
         <v>21336</v>
       </c>
-      <c r="Q15" s="17">
-        <v>0</v>
-      </c>
-      <c r="R15" s="17">
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
         <v>21343</v>
       </c>
-      <c r="S15" s="17">
-        <v>0</v>
-      </c>
-      <c r="T15" s="17">
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
         <v>21679</v>
       </c>
-      <c r="U15" s="17">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="18">
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14">
         <f>AVERAGE(B15,D15,F15,H15,J15,L15,N15,P15,R15,T15)</f>
         <v>21524.1</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="14">
         <f>AVERAGE(C15,E15,G15,I15,K15,M15,O15,Q15,S15,U15)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y15" s="14">
         <f>W15/W$24</f>
         <v>0.8665340810731381</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="17">
         <f>X15/X$24</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="20">
+      <c r="AA15" s="18">
         <v>19993.513018668466</v>
       </c>
-      <c r="AB15" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="21">
+      <c r="AB15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="19">
         <f>AA15/AA$24</f>
         <v>0.8784556139016403</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="14">
         <f>AB15/AB$24</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="22">
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="20">
         <f>AC15-Y15</f>
         <v>0.01192153282850217</v>
       </c>
-      <c r="AG15" s="22">
+      <c r="AG15" s="20">
         <f>AD15-Z15</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="22">
+      <c r="AH15" s="20">
         <f>Y15/AC15</f>
         <v>0.9864289866900013</v>
       </c>
-      <c r="AI15" s="22">
+      <c r="AI15" s="20">
         <v>1</v>
       </c>
-      <c r="AJ15" s="24">
+      <c r="AJ15" s="22">
         <f>ABS(AH15-1)</f>
         <v>0.01357101330999866</v>
       </c>
-      <c r="AK15" s="24">
+      <c r="AK15" s="22">
         <f>ABS(AI15-1)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" t="s" s="15">
+      <c r="A16" t="s" s="16">
         <v>20</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>2605</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="13">
         <v>1933</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <v>2640</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>1868</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <v>2505</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>2092</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="13">
         <v>2535</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <v>1921</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>2581</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="13">
         <v>1946</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="13">
         <v>2592</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="13">
         <v>1920</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="13">
         <v>2570</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="13">
         <v>2007</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="13">
         <v>2542</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="13">
         <v>1928</v>
       </c>
-      <c r="R16" s="17">
+      <c r="R16" s="13">
         <v>2623</v>
       </c>
-      <c r="S16" s="17">
+      <c r="S16" s="13">
         <v>2026</v>
       </c>
-      <c r="T16" s="17">
+      <c r="T16" s="13">
         <v>2590</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="13">
         <v>1911</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="18">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14">
         <f>AVERAGE(B16,D16,F16,H16,J16,L16,N16,P16,R16,T16)</f>
         <v>2578.3</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="14">
         <f>AVERAGE(C16,E16,G16,I16,K16,M16,O16,Q16,S16,U16)</f>
         <v>1955.2</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Y16" s="14">
         <f>W16/W$24</f>
         <v>0.1037992213951279</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="17">
         <f>X16/X$24</f>
         <v>0.07924259127164256</v>
       </c>
-      <c r="AA16" s="20">
+      <c r="AA16" s="18">
         <v>2337.074440257122</v>
       </c>
-      <c r="AB16" s="20">
+      <c r="AB16" s="18">
         <v>1734.715644832397</v>
       </c>
-      <c r="AC16" s="21">
+      <c r="AC16" s="19">
         <f>AA16/AA$24</f>
         <v>0.1026841136038948</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="14">
         <f>AB16/AB$24</f>
         <v>0.0762192585596453</v>
       </c>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="22">
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="20">
         <f>AC16-Y16</f>
         <v>-0.001115107791233069</v>
       </c>
-      <c r="AG16" s="22">
+      <c r="AG16" s="20">
         <f>AD16-Z16</f>
         <v>-0.003023332711997256</v>
       </c>
-      <c r="AH16" s="22">
+      <c r="AH16" s="20">
         <f>Y16/AC16</f>
         <v>1.010859594070555</v>
       </c>
-      <c r="AI16" s="22">
+      <c r="AI16" s="20">
         <f>Z16/AD16</f>
         <v>1.039666257178707</v>
       </c>
-      <c r="AJ16" s="24">
+      <c r="AJ16" s="22">
         <f>ABS(AH16-1)</f>
         <v>0.01085959407055515</v>
       </c>
-      <c r="AK16" s="24">
+      <c r="AK16" s="22">
         <f>ABS(AI16-1)</f>
         <v>0.03966625717870698</v>
       </c>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
     </row>
     <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="15">
+      <c r="A17" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>574</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>1726</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
         <v>569</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>1690</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <v>529</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="13">
         <v>1863</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="13">
         <v>533</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>1633</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>569</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="13">
         <v>1778</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="13">
         <v>535</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="13">
         <v>1849</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="13">
         <v>537</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="13">
         <v>1842</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="13">
         <v>591</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="13">
         <v>1766</v>
       </c>
-      <c r="R17" s="17">
+      <c r="R17" s="13">
         <v>568</v>
       </c>
-      <c r="S17" s="17">
+      <c r="S17" s="13">
         <v>1782</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="13">
         <v>514</v>
       </c>
-      <c r="U17" s="17">
+      <c r="U17" s="13">
         <v>1816</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="18">
+      <c r="V17" s="14"/>
+      <c r="W17" s="14">
         <f>AVERAGE(B17,D17,F17,H17,J17,L17,N17,P17,R17,T17)</f>
         <v>551.9</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="14">
         <f>AVERAGE(C17,E17,G17,I17,K17,M17,O17,Q17,S17,U17)</f>
         <v>1774.5</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="14">
         <f>W17/W$24</f>
         <v>0.02221882259161893</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z17" s="17">
         <f>X17/X$24</f>
         <v>0.07191897412619155</v>
       </c>
-      <c r="AA17" s="20">
+      <c r="AA17" s="18">
         <v>359.0540686452102</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="18">
         <v>1288.431903170647</v>
       </c>
-      <c r="AC17" s="21">
+      <c r="AC17" s="19">
         <f>AA17/AA$24</f>
         <v>0.01577576997104513</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="14">
         <f>AB17/AB$24</f>
-        <v>0.05661061780171327</v>
-      </c>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="22">
+        <v>0.05661061780171328</v>
+      </c>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="20">
         <f>AC17-Y17</f>
         <v>-0.006443052620573798</v>
       </c>
-      <c r="AG17" s="22">
+      <c r="AG17" s="20">
         <f>AD17-Z17</f>
-        <v>-0.01530835632447829</v>
-      </c>
-      <c r="AH17" s="22">
+        <v>-0.01530835632447827</v>
+      </c>
+      <c r="AH17" s="20">
         <f>Y17/AC17</f>
         <v>1.408414462964368</v>
       </c>
-      <c r="AI17" s="22">
+      <c r="AI17" s="20">
         <f>Z17/AD17</f>
         <v>1.270414931313733</v>
       </c>
-      <c r="AJ17" s="26">
+      <c r="AJ17" s="24">
         <f>ABS(AH17-1)</f>
         <v>0.408414462964368</v>
       </c>
-      <c r="AK17" s="26">
+      <c r="AK17" s="24">
         <f>ABS(AI17-1)</f>
-        <v>0.270414931313733</v>
-      </c>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
+        <v>0.2704149313137327</v>
+      </c>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
     </row>
     <row r="18" ht="21" customHeight="1">
-      <c r="A18" t="s" s="15">
+      <c r="A18" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>105</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="13">
         <v>1390</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>117</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>1373</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>116</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <v>1347</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="13">
         <v>108</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="13">
         <v>1399</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>115</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="13">
         <v>1356</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="13">
         <v>113</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="13">
         <v>1398</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="13">
         <v>109</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O18" s="13">
         <v>1350</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="13">
         <v>114</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="13">
         <v>1357</v>
       </c>
-      <c r="R18" s="17">
+      <c r="R18" s="13">
         <v>113</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="13">
         <v>1366</v>
       </c>
-      <c r="T18" s="17">
+      <c r="T18" s="13">
         <v>105</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="13">
         <v>1349</v>
       </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="18">
+      <c r="V18" s="14"/>
+      <c r="W18" s="14">
         <f>AVERAGE(B18,D18,F18,H18,J18,L18,N18,P18,R18,T18)</f>
         <v>111.5</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="14">
         <f>AVERAGE(C18,E18,G18,I18,K18,M18,O18,Q18,S18,U18)</f>
         <v>1368.5</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="14">
         <f>W18/W$24</f>
         <v>0.004488854355799076</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z18" s="17">
         <f>X18/X$24</f>
         <v>0.05546413980935088</v>
       </c>
-      <c r="AA18" s="20">
+      <c r="AA18" s="18">
         <v>46.78562224436715</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="18">
         <v>1039.342493741962</v>
       </c>
-      <c r="AC18" s="21">
+      <c r="AC18" s="19">
         <f>AA18/AA$24</f>
         <v>0.002055621364393065</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="14">
         <f>AB18/AB$24</f>
         <v>0.04566622460489709</v>
       </c>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="22">
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="20">
         <f>AC18-Y18</f>
         <v>-0.002433232991406011</v>
       </c>
-      <c r="AG18" s="22">
+      <c r="AG18" s="20">
         <f>AD18-Z18</f>
         <v>-0.009797915204453791</v>
       </c>
-      <c r="AH18" s="22">
+      <c r="AH18" s="20">
         <f>Y18/AC18</f>
         <v>2.183697072599962</v>
       </c>
-      <c r="AI18" s="22">
+      <c r="AI18" s="20">
         <f>Z18/AD18</f>
         <v>1.214554964620463</v>
       </c>
-      <c r="AJ18" s="23">
+      <c r="AJ18" s="21">
         <f>ABS(AH18-1)</f>
         <v>1.183697072599962</v>
       </c>
-      <c r="AK18" s="26">
+      <c r="AK18" s="24">
         <f>ABS(AI18-1)</f>
         <v>0.2145549646204625</v>
       </c>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
     </row>
     <row r="19" ht="21" customHeight="1">
-      <c r="A19" t="s" s="15">
+      <c r="A19" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>36</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>12612</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="13">
         <v>29</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>12924</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="13">
         <v>30</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>11924</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="13">
         <v>42</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="13">
         <v>13014</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="13">
         <v>25</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="13">
         <v>12456</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="13">
         <v>35</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="13">
         <v>12955</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="13">
         <v>37</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="13">
         <v>12960</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="13">
         <v>38</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="13">
         <v>11932</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="13">
         <v>29</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="13">
         <v>12454</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="13">
         <v>29</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="13">
         <v>12914</v>
       </c>
-      <c r="V19" s="13"/>
-      <c r="W19" s="18">
+      <c r="V19" s="14"/>
+      <c r="W19" s="14">
         <f>AVERAGE(B19,D19,F19,H19,J19,L19,N19,P19,R19,T19)</f>
         <v>33</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="14">
         <f>AVERAGE(C19,E19,G19,I19,K19,M19,O19,Q19,S19,U19)</f>
         <v>12614.5</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="14">
         <f>W19/W$24</f>
         <v>0.001328539854182686</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="17">
         <f>X19/X$24</f>
         <v>0.5112549445561247</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="18">
         <v>9.71074885149415</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="18">
         <v>9672.414017139185</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC19" s="19">
         <f>AA19/AA$24</f>
         <v>0.0004266614794417983</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="14">
         <f>AB19/AB$24</f>
         <v>0.4249827498036414</v>
       </c>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="22">
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="20">
         <f>AC19-Y19</f>
         <v>-0.0009018783747408879</v>
       </c>
-      <c r="AG19" s="22">
+      <c r="AG19" s="20">
         <f>AD19-Z19</f>
         <v>-0.08627219475248338</v>
       </c>
-      <c r="AH19" s="22">
+      <c r="AH19" s="20">
         <f>Y19/AC19</f>
         <v>3.113803139483828</v>
       </c>
-      <c r="AI19" s="22">
+      <c r="AI19" s="20">
         <f>Z19/AD19</f>
         <v>1.203001638989687</v>
       </c>
-      <c r="AJ19" s="23">
+      <c r="AJ19" s="21">
         <f>ABS(AH19-1)</f>
         <v>2.113803139483828</v>
       </c>
-      <c r="AK19" s="26">
+      <c r="AK19" s="24">
         <f>ABS(AI19-1)</f>
         <v>0.2030016389896871</v>
       </c>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
     </row>
     <row r="20" ht="21" customHeight="1">
-      <c r="A20" t="s" s="15">
+      <c r="A20" t="s" s="16">
         <v>16</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>15</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="13">
         <v>3776</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="13">
         <v>25</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <v>3735</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="13">
         <v>16</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="13">
         <v>4121</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="13">
         <v>24</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="13">
         <v>3593</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="13">
         <v>22</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="13">
         <v>3831</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="13">
         <v>22</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="13">
         <v>3635</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="13">
         <v>26</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="13">
         <v>3345</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="13">
         <v>30</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="13">
         <v>4066</v>
       </c>
-      <c r="R20" s="17">
+      <c r="R20" s="13">
         <v>19</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="13">
         <v>3681</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="13">
         <v>23</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="13">
         <v>3741</v>
       </c>
-      <c r="V20" s="13"/>
-      <c r="W20" s="18">
+      <c r="V20" s="14"/>
+      <c r="W20" s="14">
         <f>AVERAGE(B20,D20,F20,H20,J20,L20,N20,P20,R20,T20)</f>
         <v>22.2</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="14">
         <f>AVERAGE(C20,E20,G20,I20,K20,M20,O20,Q20,S20,U20)</f>
         <v>3752.4</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="14">
         <f>W20/W$24</f>
         <v>0.0008937449928138071</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="17">
         <f>X20/X$24</f>
         <v>0.1520815770702289</v>
       </c>
-      <c r="AA20" s="20">
+      <c r="AA20" s="18">
         <v>7.671143537165988</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="AB20" s="18">
         <v>5788.831470901167</v>
       </c>
-      <c r="AC20" s="21">
+      <c r="AC20" s="19">
         <f>AA20/AA$24</f>
         <v>0.0003370472762328758</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="14">
         <f>AB20/AB$24</f>
         <v>0.2543474165078262</v>
       </c>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="22">
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="20">
         <f>AC20-Y20</f>
         <v>-0.0005566977165809313</v>
       </c>
-      <c r="AG20" s="22">
+      <c r="AG20" s="20">
         <f>AD20-Z20</f>
         <v>0.1022658394375973</v>
       </c>
-      <c r="AH20" s="22">
+      <c r="AH20" s="20">
         <f>Y20/AC20</f>
         <v>2.651690299364095</v>
       </c>
-      <c r="AI20" s="22">
+      <c r="AI20" s="20">
         <f>Z20/AD20</f>
         <v>0.597928530819378</v>
       </c>
-      <c r="AJ20" s="23">
+      <c r="AJ20" s="21">
         <f>ABS(AH20-1)</f>
         <v>1.651690299364095</v>
       </c>
-      <c r="AK20" s="26">
+      <c r="AK20" s="24">
         <f>ABS(AI20-1)</f>
         <v>0.402071469180622</v>
       </c>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
     </row>
     <row r="21" ht="21" customHeight="1">
-      <c r="A21" t="s" s="15">
+      <c r="A21" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>18</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="13">
         <v>2065</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>23</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <v>1995</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="13">
         <v>17</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>2168</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="13">
         <v>16</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>1793</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="13">
         <v>18</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="13">
         <v>1914</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="13">
         <v>30</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="13">
         <v>1937</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="13">
         <v>12</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="13">
         <v>1894</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="13">
         <v>13</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="13">
         <v>2073</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R21" s="13">
         <v>10</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="13">
         <v>1939</v>
       </c>
-      <c r="T21" s="17">
+      <c r="T21" s="13">
         <v>26</v>
       </c>
-      <c r="U21" s="17">
+      <c r="U21" s="13">
         <v>1924</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="18">
+      <c r="V21" s="14"/>
+      <c r="W21" s="14">
         <f>AVERAGE(B21,D21,F21,H21,J21,L21,N21,P21,R21,T21)</f>
         <v>18.3</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="14">
         <f>AVERAGE(C21,E21,G21,I21,K21,M21,O21,Q21,S21,U21)</f>
         <v>1970.2</v>
       </c>
-      <c r="Y21" s="18">
+      <c r="Y21" s="14">
         <f>W21/W$24</f>
         <v>0.0007367357373194897</v>
       </c>
-      <c r="Z21" s="19">
+      <c r="Z21" s="17">
         <f>X21/X$24</f>
         <v>0.07985052850009726</v>
       </c>
-      <c r="AA21" s="20">
+      <c r="AA21" s="18">
         <v>6.035282619530773</v>
       </c>
-      <c r="AB21" s="20">
+      <c r="AB21" s="18">
         <v>2577.288434068850</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21" s="19">
         <f>AA21/AA$24</f>
         <v>0.0002651724033519994</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="14">
         <f>AB21/AB$24</f>
         <v>0.1132398927306938</v>
       </c>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="22">
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="20">
         <f>AC21-Y21</f>
         <v>-0.0004715633339674904</v>
       </c>
-      <c r="AG21" s="22">
+      <c r="AG21" s="20">
         <f>AD21-Z21</f>
-        <v>0.03338936423059656</v>
-      </c>
-      <c r="AH21" s="22">
+        <v>0.03338936423059659</v>
+      </c>
+      <c r="AH21" s="20">
         <f>Y21/AC21</f>
         <v>2.778327337258848</v>
       </c>
-      <c r="AI21" s="22">
+      <c r="AI21" s="20">
         <f>Z21/AD21</f>
-        <v>0.7051448617140351</v>
-      </c>
-      <c r="AJ21" s="23">
+        <v>0.7051448617140349</v>
+      </c>
+      <c r="AJ21" s="21">
         <f>ABS(AH21-1)</f>
         <v>1.778327337258848</v>
       </c>
-      <c r="AK21" s="26">
+      <c r="AK21" s="24">
         <f>ABS(AI21-1)</f>
-        <v>0.2948551382859649</v>
-      </c>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
+        <v>0.2948551382859651</v>
+      </c>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
     </row>
     <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="15">
+      <c r="A22" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
         <v>434</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
         <v>455</v>
       </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
         <v>438</v>
       </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
         <v>375</v>
       </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
         <v>390</v>
       </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="17">
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
         <v>396</v>
       </c>
-      <c r="N22" s="17">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17">
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
         <v>370</v>
       </c>
-      <c r="P22" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="17">
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
         <v>430</v>
       </c>
-      <c r="R22" s="17">
-        <v>0</v>
-      </c>
-      <c r="S22" s="17">
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
         <v>416</v>
       </c>
-      <c r="T22" s="17">
-        <v>0</v>
-      </c>
-      <c r="U22" s="17">
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
         <v>382</v>
       </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="18">
+      <c r="V22" s="14"/>
+      <c r="W22" s="14">
         <f>AVERAGE(B22,D22,F22,H22,J22,L22,N22,P22,R22,T22)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="14">
         <f>AVERAGE(C22,E22,G22,I22,K22,M22,O22,Q22,S22,U22)</f>
         <v>408.6</v>
       </c>
-      <c r="Y22" s="18">
+      <c r="Y22" s="14">
         <f>W22/W$24</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="19">
+      <c r="Z22" s="17">
         <f>X22/X$24</f>
         <v>0.01656021010310615</v>
       </c>
-      <c r="AA22" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="20">
+      <c r="AA22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="18">
         <v>643.902701622372</v>
       </c>
-      <c r="AC22" s="21">
+      <c r="AC22" s="19">
         <f>AA22/AA$24</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="14">
         <f>AB22/AB$24</f>
         <v>0.02829154544631518</v>
       </c>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="22">
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="20">
         <f>AC22-Y22</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="22">
+      <c r="AG22" s="20">
         <f>AD22-Z22</f>
         <v>0.01173133534320903</v>
       </c>
-      <c r="AH22" s="22">
+      <c r="AH22" s="20">
         <v>1</v>
       </c>
-      <c r="AI22" s="22">
+      <c r="AI22" s="20">
         <f>Z22/AD22</f>
         <v>0.5853413039782537</v>
       </c>
-      <c r="AJ22" s="24">
+      <c r="AJ22" s="22">
         <f>ABS(AH22-1)</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="26">
+      <c r="AK22" s="24">
         <f>ABS(AI22-1)</f>
         <v>0.4146586960217463</v>
       </c>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" t="s" s="15">
+      <c r="A23" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="12">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
         <v>906</v>
       </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
         <v>848</v>
       </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
         <v>905</v>
       </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
         <v>770</v>
       </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17">
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
         <v>832</v>
       </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
         <v>745</v>
       </c>
-      <c r="N23" s="17">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
         <v>692</v>
       </c>
-      <c r="P23" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="17">
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
         <v>966</v>
       </c>
-      <c r="R23" s="17">
-        <v>0</v>
-      </c>
-      <c r="S23" s="17">
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
         <v>860</v>
       </c>
-      <c r="T23" s="17">
-        <v>0</v>
-      </c>
-      <c r="U23" s="17">
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
         <v>773</v>
       </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="18">
+      <c r="V23" s="14"/>
+      <c r="W23" s="14">
         <f>AVERAGE(B23,D23,F23,H23,J23,L23,N23,P23,R23,T23)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="14">
         <f>AVERAGE(C23,E23,G23,I23,K23,M23,O23,Q23,S23,U23)</f>
         <v>829.7</v>
       </c>
-      <c r="Y23" s="18">
+      <c r="Y23" s="14">
         <f>W23/W$24</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z23" s="17">
         <f>X23/X$24</f>
         <v>0.03362703456325789</v>
       </c>
-      <c r="AA23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="20">
+      <c r="AA23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="18">
         <v>14.6183316043998</v>
       </c>
-      <c r="AC23" s="21">
+      <c r="AC23" s="19">
         <f>AA23/AA$24</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="14">
         <f>AB23/AB$24</f>
-        <v>0.000642294545267696</v>
-      </c>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="22">
+        <v>0.0006422945452676963</v>
+      </c>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="20">
         <f>AC23-Y23</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="22">
+      <c r="AG23" s="20">
         <f>AD23-Z23</f>
         <v>-0.0329847400179902</v>
       </c>
-      <c r="AH23" s="22">
+      <c r="AH23" s="20">
         <v>1</v>
       </c>
-      <c r="AI23" s="22">
+      <c r="AI23" s="20">
         <f>Z23/AD23</f>
-        <v>52.35453860073309</v>
-      </c>
-      <c r="AJ23" s="24">
+        <v>52.35453860073306</v>
+      </c>
+      <c r="AJ23" s="22">
         <f>ABS(AH23-1)</f>
         <v>0</v>
       </c>
-      <c r="AK23" s="23">
+      <c r="AK23" s="21">
         <f>ABS(AI23-1)</f>
-        <v>51.35453860073309</v>
-      </c>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
+        <v>51.35453860073306</v>
+      </c>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
     </row>
     <row r="24" ht="21" customHeight="1">
-      <c r="A24" t="s" s="15">
+      <c r="A24" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="18">
+      <c r="B24" s="28"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14">
         <f>SUM(W15:W23)</f>
         <v>24839.3</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="14">
         <f>SUM(X15:X23)</f>
         <v>24673.6</v>
       </c>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="31">
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="27">
         <f>SUM(AA15:AA23)</f>
         <v>22759.844324823356</v>
       </c>
-      <c r="AB24" s="31">
+      <c r="AB24" s="27">
         <f>SUM(AB15:AB23)</f>
         <v>22759.544997080982</v>
       </c>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="22">
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="20">
         <f>AA24-W24</f>
         <v>-2079.455675176643</v>
       </c>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="22">
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="20">
         <f>W24/AA24</f>
         <v>1.091365109774</v>
       </c>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="24">
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="22">
         <f>ABS(AH24-1)</f>
         <v>0.09136510977400025</v>
       </c>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
     </row>
     <row r="25" ht="20.65" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="24">
+      <c r="A26" s="11"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="22">
         <f>AJ24/2+AJ14/2</f>
-        <v>0.07411185959359368</v>
-      </c>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
+        <v>0.07411185959359357</v>
+      </c>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4352,4 +5577,2536 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AN33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="30" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="30" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="30" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="30" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="30" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="30" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="30" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="30" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="30" customWidth="1"/>
+    <col min="11" max="11" width="16.3516" style="30" customWidth="1"/>
+    <col min="12" max="12" width="16.3516" style="30" customWidth="1"/>
+    <col min="13" max="13" width="16.3516" style="30" customWidth="1"/>
+    <col min="14" max="14" width="16.3516" style="30" customWidth="1"/>
+    <col min="15" max="15" width="16.3516" style="30" customWidth="1"/>
+    <col min="16" max="16" width="16.3516" style="30" customWidth="1"/>
+    <col min="17" max="17" width="16.3516" style="30" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="30" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="30" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="30" customWidth="1"/>
+    <col min="21" max="21" width="16.3516" style="30" customWidth="1"/>
+    <col min="22" max="22" width="16.3516" style="30" customWidth="1"/>
+    <col min="23" max="23" width="16.3516" style="30" customWidth="1"/>
+    <col min="24" max="24" width="16.3516" style="30" customWidth="1"/>
+    <col min="25" max="25" width="16.3516" style="30" customWidth="1"/>
+    <col min="26" max="26" width="16.3516" style="30" customWidth="1"/>
+    <col min="27" max="27" width="16.3516" style="30" customWidth="1"/>
+    <col min="28" max="28" width="16.3516" style="30" customWidth="1"/>
+    <col min="29" max="29" width="16.3516" style="30" customWidth="1"/>
+    <col min="30" max="30" width="16.3516" style="30" customWidth="1"/>
+    <col min="31" max="31" width="16.3516" style="30" customWidth="1"/>
+    <col min="32" max="32" width="16.3516" style="30" customWidth="1"/>
+    <col min="33" max="33" width="16.3516" style="30" customWidth="1"/>
+    <col min="34" max="34" width="16.3516" style="30" customWidth="1"/>
+    <col min="35" max="35" width="16.3516" style="30" customWidth="1"/>
+    <col min="36" max="36" width="16.3516" style="30" customWidth="1"/>
+    <col min="37" max="37" width="16.3516" style="30" customWidth="1"/>
+    <col min="38" max="38" width="16.3516" style="30" customWidth="1"/>
+    <col min="39" max="39" width="16.3516" style="30" customWidth="1"/>
+    <col min="40" max="40" width="16.3516" style="30" customWidth="1"/>
+    <col min="41" max="256" width="16.3516" style="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+    </row>
+    <row r="2" ht="14.55" customHeight="1">
+      <c r="A2" t="s" s="32">
+        <v>25</v>
+      </c>
+      <c r="B2" s="33">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>3</v>
+      </c>
+      <c r="G2" s="34">
+        <v>3</v>
+      </c>
+      <c r="H2" s="34">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34">
+        <v>3</v>
+      </c>
+      <c r="J2" s="34">
+        <v>3</v>
+      </c>
+      <c r="K2" s="34">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+    </row>
+    <row r="3" ht="14.35" customHeight="1">
+      <c r="A3" t="s" s="35">
+        <v>26</v>
+      </c>
+      <c r="B3" s="36">
+        <v>10</v>
+      </c>
+      <c r="C3" s="37">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37">
+        <v>10</v>
+      </c>
+      <c r="E3" s="37">
+        <v>10</v>
+      </c>
+      <c r="F3" s="37">
+        <v>10</v>
+      </c>
+      <c r="G3" s="37">
+        <v>10</v>
+      </c>
+      <c r="H3" s="37">
+        <v>10</v>
+      </c>
+      <c r="I3" s="37">
+        <v>10</v>
+      </c>
+      <c r="J3" s="37">
+        <v>10</v>
+      </c>
+      <c r="K3" s="37">
+        <v>10</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" t="s" s="35">
+        <v>27</v>
+      </c>
+      <c r="B4" s="36">
+        <v>4</v>
+      </c>
+      <c r="C4" s="37">
+        <v>4</v>
+      </c>
+      <c r="D4" s="37">
+        <v>4</v>
+      </c>
+      <c r="E4" s="37">
+        <v>4</v>
+      </c>
+      <c r="F4" s="37">
+        <v>4</v>
+      </c>
+      <c r="G4" s="37">
+        <v>4</v>
+      </c>
+      <c r="H4" s="37">
+        <v>4</v>
+      </c>
+      <c r="I4" s="37">
+        <v>4</v>
+      </c>
+      <c r="J4" s="37">
+        <v>4</v>
+      </c>
+      <c r="K4" s="37">
+        <v>4</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+    </row>
+    <row r="5" ht="14.35" customHeight="1">
+      <c r="A5" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="B5" s="36">
+        <v>4</v>
+      </c>
+      <c r="C5" s="37">
+        <v>4</v>
+      </c>
+      <c r="D5" s="37">
+        <v>4</v>
+      </c>
+      <c r="E5" s="37">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37">
+        <v>5</v>
+      </c>
+      <c r="G5" s="37">
+        <v>5</v>
+      </c>
+      <c r="H5" s="37">
+        <v>5</v>
+      </c>
+      <c r="I5" s="37">
+        <v>4</v>
+      </c>
+      <c r="J5" s="37">
+        <v>4</v>
+      </c>
+      <c r="K5" s="37">
+        <v>5</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+    </row>
+    <row r="6" ht="14.35" customHeight="1">
+      <c r="A6" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="B6" s="36">
+        <v>18</v>
+      </c>
+      <c r="C6" s="37">
+        <v>9</v>
+      </c>
+      <c r="D6" s="37">
+        <v>7</v>
+      </c>
+      <c r="E6" s="37">
+        <v>9</v>
+      </c>
+      <c r="F6" s="37">
+        <v>6</v>
+      </c>
+      <c r="G6" s="37">
+        <v>17</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="I6" s="37">
+        <v>8</v>
+      </c>
+      <c r="J6" s="37">
+        <v>10</v>
+      </c>
+      <c r="K6" s="37">
+        <v>14</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+    </row>
+    <row r="7" ht="14.35" customHeight="1">
+      <c r="A7" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="B7" s="36">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37">
+        <v>1257</v>
+      </c>
+      <c r="D7" s="37">
+        <v>726</v>
+      </c>
+      <c r="E7" s="37">
+        <v>1241</v>
+      </c>
+      <c r="F7" s="37">
+        <v>6587</v>
+      </c>
+      <c r="G7" s="37">
+        <v>9</v>
+      </c>
+      <c r="H7" s="37">
+        <v>17</v>
+      </c>
+      <c r="I7" s="37">
+        <v>622</v>
+      </c>
+      <c r="J7" s="37">
+        <v>20711</v>
+      </c>
+      <c r="K7" s="37">
+        <v>373</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+    </row>
+    <row r="8" ht="14.35" customHeight="1">
+      <c r="A8" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="B8" s="36">
+        <v>2700</v>
+      </c>
+      <c r="C8" s="37">
+        <v>475</v>
+      </c>
+      <c r="D8" s="37">
+        <v>35</v>
+      </c>
+      <c r="E8" s="37">
+        <v>446</v>
+      </c>
+      <c r="F8" s="37">
+        <v>202</v>
+      </c>
+      <c r="G8" s="37">
+        <v>5614</v>
+      </c>
+      <c r="H8" s="37">
+        <v>140</v>
+      </c>
+      <c r="I8" s="37">
+        <v>220</v>
+      </c>
+      <c r="J8" s="37">
+        <v>20895</v>
+      </c>
+      <c r="K8" s="37">
+        <v>1289</v>
+      </c>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+    </row>
+    <row r="9" ht="14.35" customHeight="1">
+      <c r="A9" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0</v>
+      </c>
+      <c r="C9" s="37">
+        <v>174</v>
+      </c>
+      <c r="D9" s="37">
+        <v>158</v>
+      </c>
+      <c r="E9" s="37">
+        <v>172</v>
+      </c>
+      <c r="F9" s="37">
+        <v>216</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="I9" s="37">
+        <v>58</v>
+      </c>
+      <c r="J9" s="37">
+        <v>8206</v>
+      </c>
+      <c r="K9" s="37">
+        <v>159</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" t="s" s="38">
+        <v>33</v>
+      </c>
+      <c r="AE9" s="37"/>
+      <c r="AF9" t="s" s="38">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="37"/>
+      <c r="AH9" t="s" s="38">
+        <v>35</v>
+      </c>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" t="s" s="38">
+        <v>36</v>
+      </c>
+      <c r="AK9" s="38"/>
+      <c r="AL9" t="s" s="38">
+        <v>37</v>
+      </c>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+    </row>
+    <row r="10" ht="14.35" customHeight="1">
+      <c r="A10" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="B10" s="36">
+        <v>781</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44</v>
+      </c>
+      <c r="D10" s="37">
+        <v>0</v>
+      </c>
+      <c r="E10" s="37">
+        <v>46</v>
+      </c>
+      <c r="F10" s="37">
+        <v>85</v>
+      </c>
+      <c r="G10" s="37">
+        <v>1861</v>
+      </c>
+      <c r="H10" s="37">
+        <v>101</v>
+      </c>
+      <c r="I10" s="37">
+        <v>25</v>
+      </c>
+      <c r="J10" s="37">
+        <v>1187</v>
+      </c>
+      <c r="K10" s="37">
+        <v>318</v>
+      </c>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37">
+        <f>(T24-U24)^2/T24</f>
+        <v>0.002455353240336632</v>
+      </c>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37">
+        <f>(T24-Y24)^2/T24</f>
+        <v>0.2880197725724277</v>
+      </c>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37">
+        <f>(T24-V24)^2/T24</f>
+        <v>0.04199586383785116</v>
+      </c>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37">
+        <f>(T24-W24)^2/T24</f>
+        <v>0.006708402067246248</v>
+      </c>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37">
+        <f>(U24-V24)^2/U24</f>
+        <v>0.06406780914456836</v>
+      </c>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+    </row>
+    <row r="11" ht="14.35" customHeight="1">
+      <c r="A11" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37">
+        <v>259</v>
+      </c>
+      <c r="D11" s="37">
+        <v>262</v>
+      </c>
+      <c r="E11" s="37">
+        <v>294</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2481</v>
+      </c>
+      <c r="G11" s="37">
+        <v>7</v>
+      </c>
+      <c r="H11" s="37">
+        <v>9</v>
+      </c>
+      <c r="I11" s="37">
+        <v>171</v>
+      </c>
+      <c r="J11" s="37">
+        <v>2681</v>
+      </c>
+      <c r="K11" s="37">
+        <v>19</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37">
+        <f>(T25-U25)^2/T25</f>
+        <v>0.1167565736301383</v>
+      </c>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37">
+        <f>(T25-Y25)^2/T25</f>
+        <v>0.3300749565417883</v>
+      </c>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37">
+        <f>(T25-V25)^2/T25</f>
+        <v>0.09834425358980751</v>
+      </c>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37">
+        <f>(T25-W25)^2/T25</f>
+        <v>0.02973897360455957</v>
+      </c>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37">
+        <f>(U25-V25)^2/U25</f>
+        <v>0.4951079629267017</v>
+      </c>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+    </row>
+    <row r="12" ht="14.35" customHeight="1">
+      <c r="A12" t="s" s="35">
+        <v>40</v>
+      </c>
+      <c r="B12" s="36">
+        <v>429</v>
+      </c>
+      <c r="C12" s="37">
+        <v>219</v>
+      </c>
+      <c r="D12" s="37">
+        <v>6</v>
+      </c>
+      <c r="E12" s="37">
+        <v>175</v>
+      </c>
+      <c r="F12" s="37">
+        <v>5</v>
+      </c>
+      <c r="G12" s="37">
+        <v>461</v>
+      </c>
+      <c r="H12" s="37">
+        <v>13</v>
+      </c>
+      <c r="I12" s="37">
+        <v>69</v>
+      </c>
+      <c r="J12" s="37">
+        <v>6438</v>
+      </c>
+      <c r="K12" s="37">
+        <v>186</v>
+      </c>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37">
+        <f>(T26-U26)^2/T26</f>
+        <v>0.001195679308097169</v>
+      </c>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37">
+        <f>(T26-Y26)^2/T26</f>
+        <v>0.004479443350010192</v>
+      </c>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37">
+        <f>(T26-V26)^2/T26</f>
+        <v>0.002693152999858418</v>
+      </c>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37">
+        <f>(T26-W26)^2/T26</f>
+        <v>5.164017822398633e-05</v>
+      </c>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37">
+        <f>(U26-V26)^2/U26</f>
+        <v>0.007820801663458592</v>
+      </c>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+    </row>
+    <row r="13" ht="14.35" customHeight="1">
+      <c r="A13" t="s" s="39">
+        <v>41</v>
+      </c>
+      <c r="B13" s="36">
+        <v>1</v>
+      </c>
+      <c r="C13" s="37">
+        <v>71</v>
+      </c>
+      <c r="D13" s="37">
+        <v>67</v>
+      </c>
+      <c r="E13" s="37">
+        <v>70</v>
+      </c>
+      <c r="F13" s="37">
+        <v>694</v>
+      </c>
+      <c r="G13" s="37">
+        <v>2</v>
+      </c>
+      <c r="H13" s="37">
+        <v>2</v>
+      </c>
+      <c r="I13" s="37">
+        <v>141</v>
+      </c>
+      <c r="J13" s="37">
+        <v>1605</v>
+      </c>
+      <c r="K13" s="37">
+        <v>22</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="37">
+        <f>(T27-U27)^2/T27</f>
+        <v>0.01879052294355193</v>
+      </c>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37">
+        <f>(T27-Y27)^2/T27</f>
+        <v>0.1281040563396969</v>
+      </c>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37">
+        <f>(T27-V27)^2/T27</f>
+        <v>0.04158949849473055</v>
+      </c>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37">
+        <f>(T27-W27)^2/T27</f>
+        <v>0.01270866933201823</v>
+      </c>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37">
+        <f>(U27-V27)^2/U27</f>
+        <v>0.1103867710210028</v>
+      </c>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+    </row>
+    <row r="14" ht="14.35" customHeight="1">
+      <c r="A14" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="B14" s="36">
+        <v>617.580699866392</v>
+      </c>
+      <c r="C14" s="37">
+        <v>714.055704782685</v>
+      </c>
+      <c r="D14" s="37">
+        <v>693.793349813712</v>
+      </c>
+      <c r="E14" s="37">
+        <v>698.106087997264</v>
+      </c>
+      <c r="F14" s="37">
+        <v>714.645700453828</v>
+      </c>
+      <c r="G14" s="37">
+        <v>655.466827453606</v>
+      </c>
+      <c r="H14" s="37">
+        <v>611.333333333333</v>
+      </c>
+      <c r="I14" s="37">
+        <v>714.258105992599</v>
+      </c>
+      <c r="J14" s="37">
+        <v>162.738035616150</v>
+      </c>
+      <c r="K14" s="37">
+        <v>180.893114407878</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37">
+        <f>(T28-U28)^2/T28</f>
+        <v>14.9010651161761</v>
+      </c>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37">
+        <f>(T28-Y28)^2/T28</f>
+        <v>93.77081928583247</v>
+      </c>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37">
+        <f>(T28-V28)^2/T28</f>
+        <v>10.16773331138661</v>
+      </c>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37">
+        <f>(T28-W28)^2/T28</f>
+        <v>64.00393645681889</v>
+      </c>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37">
+        <f>(U28-V28)^2/U28</f>
+        <v>0.5451967319896324</v>
+      </c>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+    </row>
+    <row r="15" ht="14.35" customHeight="1">
+      <c r="A15" t="s" s="35">
+        <v>43</v>
+      </c>
+      <c r="B15" s="36">
+        <v>9.90132242326024</v>
+      </c>
+      <c r="C15" s="37">
+        <v>33.3205373107358</v>
+      </c>
+      <c r="D15" s="37">
+        <v>36.112682836164</v>
+      </c>
+      <c r="E15" s="37">
+        <v>33.891145169822</v>
+      </c>
+      <c r="F15" s="37">
+        <v>32.4973561218341</v>
+      </c>
+      <c r="G15" s="37">
+        <v>16.6990812072558</v>
+      </c>
+      <c r="H15" s="37">
+        <v>19.1612733067089</v>
+      </c>
+      <c r="I15" s="37">
+        <v>52.6116786063612</v>
+      </c>
+      <c r="J15" s="37">
+        <v>20.6422138510155</v>
+      </c>
+      <c r="K15" s="37">
+        <v>29.4474475020819</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+    </row>
+    <row r="16" ht="14.35" customHeight="1">
+      <c r="A16" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="B16" s="36">
+        <v>617.580699866392</v>
+      </c>
+      <c r="C16" s="37">
+        <v>714.055704782685</v>
+      </c>
+      <c r="D16" s="37">
+        <v>693.793349813712</v>
+      </c>
+      <c r="E16" s="37">
+        <v>704.780871443410</v>
+      </c>
+      <c r="F16" s="37">
+        <v>711.207683028223</v>
+      </c>
+      <c r="G16" s="37">
+        <v>655.466827453606</v>
+      </c>
+      <c r="H16" s="37">
+        <v>323.199121961070</v>
+      </c>
+      <c r="I16" s="37">
+        <v>714.258105992599</v>
+      </c>
+      <c r="J16" s="37">
+        <v>291.004812670497</v>
+      </c>
+      <c r="K16" s="37">
+        <v>728.957870732646</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" t="s" s="38">
+        <v>44</v>
+      </c>
+      <c r="AD16" s="37">
+        <f>SUM(AD10:AD13)</f>
+        <v>0.139198129122124</v>
+      </c>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37">
+        <f>SUM(AF10:AF13)</f>
+        <v>0.7506782288039231</v>
+      </c>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37">
+        <f>SUM(AH10:AH13)</f>
+        <v>0.1846227689222477</v>
+      </c>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37">
+        <f>SUM(AJ10:AJ13)</f>
+        <v>0.04920768518204804</v>
+      </c>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37">
+        <f>SUM(AL10:AL13)</f>
+        <v>0.6773833447557314</v>
+      </c>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+    </row>
+    <row r="17" ht="14.35" customHeight="1">
+      <c r="A17" t="s" s="39">
+        <v>45</v>
+      </c>
+      <c r="B17" s="36">
+        <v>10.3971399724076</v>
+      </c>
+      <c r="C17" s="37">
+        <v>8.353095604413239</v>
+      </c>
+      <c r="D17" s="37">
+        <v>8.686696810967129</v>
+      </c>
+      <c r="E17" s="37">
+        <v>8.81585631409158</v>
+      </c>
+      <c r="F17" s="37">
+        <v>9.72900401665972</v>
+      </c>
+      <c r="G17" s="37">
+        <v>9.059549613119829</v>
+      </c>
+      <c r="H17" s="37">
+        <v>9.82224374696013</v>
+      </c>
+      <c r="I17" s="37">
+        <v>14.6314483102733</v>
+      </c>
+      <c r="J17" s="37">
+        <v>8.99103572531992</v>
+      </c>
+      <c r="K17" s="37">
+        <v>7.0951042639195</v>
+      </c>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" t="s" s="38">
+        <v>46</v>
+      </c>
+      <c r="AD17" s="37">
+        <f>SUM(AD10:AD14)</f>
+        <v>15.04026324529822</v>
+      </c>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37">
+        <f>SUM(AF10:AF14)</f>
+        <v>94.52149751463639</v>
+      </c>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37">
+        <f>SUM(AH10:AH14)</f>
+        <v>10.35235608030886</v>
+      </c>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37">
+        <f>SUM(AJ10:AJ14)</f>
+        <v>64.05314414200095</v>
+      </c>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37">
+        <f>SUM(AL10:AL14)</f>
+        <v>1.222580076745364</v>
+      </c>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+    </row>
+    <row r="18" ht="14.35" customHeight="1">
+      <c r="A18" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="B18" s="36">
+        <v>203.584736166533</v>
+      </c>
+      <c r="C18" s="37">
+        <v>714.055704782685</v>
+      </c>
+      <c r="D18" s="37">
+        <v>220.931242227616</v>
+      </c>
+      <c r="E18" s="37">
+        <v>698.106087997264</v>
+      </c>
+      <c r="F18" s="37">
+        <v>709.442657363041</v>
+      </c>
+      <c r="G18" s="37">
+        <v>236.000235860333</v>
+      </c>
+      <c r="H18" s="37">
+        <v>727.071794555061</v>
+      </c>
+      <c r="I18" s="37">
+        <v>768.300162683789</v>
+      </c>
+      <c r="J18" s="37">
+        <v>730.519227193226</v>
+      </c>
+      <c r="K18" s="37">
+        <v>793.1499607581781</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" t="s" s="38">
+        <v>48</v>
+      </c>
+      <c r="AC18" t="s" s="42">
+        <v>49</v>
+      </c>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+    </row>
+    <row r="19" ht="14.35" customHeight="1">
+      <c r="A19" t="s" s="35">
+        <v>50</v>
+      </c>
+      <c r="B19" s="36">
+        <v>8.78016554654543</v>
+      </c>
+      <c r="C19" s="37">
+        <v>6.02256116879742</v>
+      </c>
+      <c r="D19" s="37">
+        <v>4.21819712796312</v>
+      </c>
+      <c r="E19" s="37">
+        <v>2.83542861316081</v>
+      </c>
+      <c r="F19" s="37">
+        <v>2.42908717208403</v>
+      </c>
+      <c r="G19" s="37">
+        <v>6.21622297721349</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1.12103870567435</v>
+      </c>
+      <c r="I19" s="37">
+        <v>5.98131042543808</v>
+      </c>
+      <c r="J19" s="37">
+        <v>6.43779102470924</v>
+      </c>
+      <c r="K19" s="37">
+        <v>8.277546135817159</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" t="s" s="38">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="43">
+        <v>0.711</v>
+      </c>
+      <c r="AC19" s="43">
+        <v>18.467</v>
+      </c>
+      <c r="AD19" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AE19" s="37"/>
+      <c r="AF19" t="s" s="44">
+        <v>53</v>
+      </c>
+      <c r="AG19" s="37"/>
+      <c r="AH19" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AK19" s="37"/>
+      <c r="AL19" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+    </row>
+    <row r="20" ht="14.35" customHeight="1">
+      <c r="A20" t="s" s="35">
+        <v>54</v>
+      </c>
+      <c r="B20" s="36">
+        <v>9.90320997691752</v>
+      </c>
+      <c r="C20" s="37">
+        <v>8.46649903439638</v>
+      </c>
+      <c r="D20" s="37">
+        <v>5.84521602017747</v>
+      </c>
+      <c r="E20" s="37">
+        <v>5.97905598862172</v>
+      </c>
+      <c r="F20" s="37">
+        <v>5.35503308391253</v>
+      </c>
+      <c r="G20" s="37">
+        <v>7.93386353670669</v>
+      </c>
+      <c r="H20" s="37">
+        <v>7.76719674645799</v>
+      </c>
+      <c r="I20" s="37">
+        <v>10.0032260563361</v>
+      </c>
+      <c r="J20" s="37">
+        <v>8.67313513051106</v>
+      </c>
+      <c r="K20" s="37">
+        <v>11.9839100772278</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" t="s" s="38">
+        <v>55</v>
+      </c>
+      <c r="AB20" s="43">
+        <v>1.145</v>
+      </c>
+      <c r="AC20" s="43">
+        <v>20.515</v>
+      </c>
+      <c r="AD20" t="s" s="44">
+        <v>53</v>
+      </c>
+      <c r="AE20" s="37"/>
+      <c r="AF20" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AG20" s="37"/>
+      <c r="AH20" t="s" s="44">
+        <v>53</v>
+      </c>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AK20" s="37"/>
+      <c r="AL20" t="s" s="38">
+        <v>52</v>
+      </c>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+    </row>
+    <row r="21" ht="14.35" customHeight="1">
+      <c r="A21" t="s" s="35">
+        <v>56</v>
+      </c>
+      <c r="B21" s="36">
+        <v>0.886597938144329</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0.711340206185567</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.721649484536082</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.474226804123711</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.45360824742268</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.783505154639175</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.144329896907216</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.597938144329896</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0.742268041237113</v>
+      </c>
+      <c r="K21" s="37">
+        <v>0.690721649484536</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="37"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+    </row>
+    <row r="22" ht="14.35" customHeight="1">
+      <c r="A22" t="s" s="35">
+        <v>57</v>
+      </c>
+      <c r="B22" s="36">
+        <v>0</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37">
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
+        <v>0</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37">
+        <v>1</v>
+      </c>
+      <c r="U22" s="37">
+        <v>2</v>
+      </c>
+      <c r="V22" s="37">
+        <v>3</v>
+      </c>
+      <c r="W22" s="37">
+        <v>4</v>
+      </c>
+      <c r="X22" s="37">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="37">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="37">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="37">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="37">
+        <v>9</v>
+      </c>
+      <c r="AC22" s="37">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="s" s="38">
+        <v>58</v>
+      </c>
+      <c r="AE22" t="s" s="38">
+        <v>59</v>
+      </c>
+      <c r="AF22" t="s" s="38">
+        <v>60</v>
+      </c>
+      <c r="AG22" t="s" s="38">
+        <v>61</v>
+      </c>
+      <c r="AH22" t="s" s="38">
+        <v>62</v>
+      </c>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="38"/>
+      <c r="AN22" s="38"/>
+    </row>
+    <row r="23" ht="14.35" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" t="s" s="46">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s" s="38">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s" s="38">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s" s="38">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s" s="38">
+        <v>69</v>
+      </c>
+      <c r="I23" t="s" s="38">
+        <v>70</v>
+      </c>
+      <c r="J23" t="s" s="38">
+        <v>71</v>
+      </c>
+      <c r="K23" t="s" s="38">
+        <v>72</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" t="s" s="38">
+        <v>63</v>
+      </c>
+      <c r="U23" t="s" s="38">
+        <v>64</v>
+      </c>
+      <c r="V23" t="s" s="38">
+        <v>65</v>
+      </c>
+      <c r="W23" t="s" s="38">
+        <v>66</v>
+      </c>
+      <c r="X23" t="s" s="38">
+        <v>67</v>
+      </c>
+      <c r="Y23" t="s" s="38">
+        <v>68</v>
+      </c>
+      <c r="Z23" t="s" s="38">
+        <v>69</v>
+      </c>
+      <c r="AA23" t="s" s="38">
+        <v>70</v>
+      </c>
+      <c r="AB23" t="s" s="38">
+        <v>71</v>
+      </c>
+      <c r="AC23" t="s" s="38">
+        <v>72</v>
+      </c>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="38"/>
+      <c r="AJ23" s="38"/>
+      <c r="AK23" s="38"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="38"/>
+      <c r="AN23" s="38"/>
+    </row>
+    <row r="24" ht="14.35" customHeight="1">
+      <c r="A24" t="s" s="39">
+        <v>43</v>
+      </c>
+      <c r="B24" s="36">
+        <v>21.01694488023054</v>
+      </c>
+      <c r="C24" s="37">
+        <v>21.24411007059572</v>
+      </c>
+      <c r="D24" s="37">
+        <v>20.07746377053339</v>
+      </c>
+      <c r="E24" s="37">
+        <v>20.64145837383951</v>
+      </c>
+      <c r="F24" s="37">
+        <v>21.69519918136919</v>
+      </c>
+      <c r="G24" s="37">
+        <v>18.55660025303474</v>
+      </c>
+      <c r="H24" s="37">
+        <v>19.83519311906559</v>
+      </c>
+      <c r="I24" s="37">
+        <v>21.10566113130027</v>
+      </c>
+      <c r="J24" s="37">
+        <v>22.16915556546753</v>
+      </c>
+      <c r="K24" s="37">
+        <v>20.5529856989819</v>
+      </c>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37">
+        <v>21.01694488023054</v>
+      </c>
+      <c r="U24" s="37">
+        <v>21.24411007059572</v>
+      </c>
+      <c r="V24" s="37">
+        <v>20.07746377053339</v>
+      </c>
+      <c r="W24" s="37">
+        <v>20.64145837383951</v>
+      </c>
+      <c r="X24" s="37">
+        <v>21.69519918136919</v>
+      </c>
+      <c r="Y24" s="47">
+        <v>18.55660025303474</v>
+      </c>
+      <c r="Z24" s="37">
+        <v>19.83519311906559</v>
+      </c>
+      <c r="AA24" s="37">
+        <v>21.10566113130027</v>
+      </c>
+      <c r="AB24" s="37">
+        <v>22.16915556546753</v>
+      </c>
+      <c r="AC24" s="37">
+        <v>20.5529856989819</v>
+      </c>
+      <c r="AD24" s="37">
+        <f>STDEV(T24:AC24)</f>
+        <v>1.025423927166629</v>
+      </c>
+      <c r="AE24" s="37">
+        <f>AVERAGE(T24:AC24)</f>
+        <v>20.68947720444184</v>
+      </c>
+      <c r="AF24" s="37">
+        <f>AE24-AD24</f>
+        <v>19.66405327727521</v>
+      </c>
+      <c r="AG24" s="37">
+        <f>AE24+AD24</f>
+        <v>21.71490113160846</v>
+      </c>
+      <c r="AH24" s="37">
+        <f>VAR(T24:AC24)</f>
+        <v>1.051494230405832</v>
+      </c>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="37"/>
+    </row>
+    <row r="25" ht="14.35" customHeight="1">
+      <c r="A25" t="s" s="39">
+        <v>50</v>
+      </c>
+      <c r="B25" s="36">
+        <v>6.631412872451781</v>
+      </c>
+      <c r="C25" s="37">
+        <v>5.751491827519758</v>
+      </c>
+      <c r="D25" s="37">
+        <v>7.438977946725744</v>
+      </c>
+      <c r="E25" s="37">
+        <v>7.075497788177119</v>
+      </c>
+      <c r="F25" s="37">
+        <v>5.713208838676811</v>
+      </c>
+      <c r="G25" s="37">
+        <v>8.110893631260485</v>
+      </c>
+      <c r="H25" s="37">
+        <v>7.928124658153459</v>
+      </c>
+      <c r="I25" s="37">
+        <v>7.113944249976375</v>
+      </c>
+      <c r="J25" s="37">
+        <v>5.188389957986216</v>
+      </c>
+      <c r="K25" s="37">
+        <v>7.64245988467321</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37">
+        <v>6.631412872451781</v>
+      </c>
+      <c r="U25" s="47">
+        <v>5.751491827519758</v>
+      </c>
+      <c r="V25" s="37">
+        <v>7.438977946725744</v>
+      </c>
+      <c r="W25" s="37">
+        <v>7.075497788177119</v>
+      </c>
+      <c r="X25" s="47">
+        <v>5.713208838676811</v>
+      </c>
+      <c r="Y25" s="47">
+        <v>8.110893631260485</v>
+      </c>
+      <c r="Z25" s="47">
+        <v>7.928124658153459</v>
+      </c>
+      <c r="AA25" s="37">
+        <v>7.113944249976375</v>
+      </c>
+      <c r="AB25" s="47">
+        <v>5.188389957986216</v>
+      </c>
+      <c r="AC25" s="37">
+        <v>7.64245988467321</v>
+      </c>
+      <c r="AD25" s="37">
+        <f>STDEV(T25:AC25)</f>
+        <v>1.008544632640238</v>
+      </c>
+      <c r="AE25" s="37">
+        <f>AVERAGE(T25:AC25)</f>
+        <v>6.859440165560097</v>
+      </c>
+      <c r="AF25" s="37">
+        <f>AE25-AD25</f>
+        <v>5.850895532919858</v>
+      </c>
+      <c r="AG25" s="37">
+        <f>AE25+AD25</f>
+        <v>7.867984798200335</v>
+      </c>
+      <c r="AH25" s="37">
+        <f>VAR(T25:AC25)</f>
+        <v>1.017162276027433</v>
+      </c>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+    </row>
+    <row r="26" ht="14.35" customHeight="1">
+      <c r="A26" t="s" s="39">
+        <v>56</v>
+      </c>
+      <c r="B26" s="48">
+        <v>6.21569343065693</v>
+      </c>
+      <c r="C26" s="49">
+        <v>5.943076923076923</v>
+      </c>
+      <c r="D26" s="49">
+        <v>6.62483660130718</v>
+      </c>
+      <c r="E26" s="49">
+        <v>6.272348484848483</v>
+      </c>
+      <c r="F26" s="49">
+        <v>5.796538461538454</v>
+      </c>
+      <c r="G26" s="49">
+        <v>6.743356643356643</v>
+      </c>
+      <c r="H26" s="49">
+        <v>6.795454545454536</v>
+      </c>
+      <c r="I26" s="49">
+        <v>6.407142857142856</v>
+      </c>
+      <c r="J26" s="49">
+        <v>5.524999999999995</v>
+      </c>
+      <c r="K26" s="49">
+        <v>6.34825174825175</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="49">
+        <v>0.621569343065693</v>
+      </c>
+      <c r="U26" s="49">
+        <v>0.5943076923076923</v>
+      </c>
+      <c r="V26" s="49">
+        <v>0.662483660130718</v>
+      </c>
+      <c r="W26" s="49">
+        <v>0.6272348484848483</v>
+      </c>
+      <c r="X26" s="50">
+        <v>0.5796538461538454</v>
+      </c>
+      <c r="Y26" s="50">
+        <v>0.6743356643356643</v>
+      </c>
+      <c r="Z26" s="50">
+        <v>0.6795454545454536</v>
+      </c>
+      <c r="AA26" s="49">
+        <v>0.6407142857142856</v>
+      </c>
+      <c r="AB26" s="50">
+        <v>0.5524999999999995</v>
+      </c>
+      <c r="AC26" s="49">
+        <v>0.634825174825175</v>
+      </c>
+      <c r="AD26" s="37">
+        <f>STDEV(T26:AC26)</f>
+        <v>0.04136495643664655</v>
+      </c>
+      <c r="AE26" s="37">
+        <f>AVERAGE(T26:AC26)</f>
+        <v>0.6267169969563374</v>
+      </c>
+      <c r="AF26" s="37">
+        <f>AE26-AD26</f>
+        <v>0.5853520405196909</v>
+      </c>
+      <c r="AG26" s="37">
+        <f>AE26+AD26</f>
+        <v>0.6680819533929839</v>
+      </c>
+      <c r="AH26" s="37">
+        <f>VAR(T26:AC26)</f>
+        <v>0.001711059621005667</v>
+      </c>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+    </row>
+    <row r="27" ht="14.35" customHeight="1">
+      <c r="A27" t="s" s="39">
+        <v>45</v>
+      </c>
+      <c r="B27" s="36">
+        <v>6.569870738264415</v>
+      </c>
+      <c r="C27" s="37">
+        <v>6.921227119796796</v>
+      </c>
+      <c r="D27" s="37">
+        <v>6.047149369675353</v>
+      </c>
+      <c r="E27" s="37">
+        <v>6.280916910176423</v>
+      </c>
+      <c r="F27" s="37">
+        <v>7.152074053558773</v>
+      </c>
+      <c r="G27" s="37">
+        <v>5.652468377683655</v>
+      </c>
+      <c r="H27" s="37">
+        <v>6.037915872937453</v>
+      </c>
+      <c r="I27" s="37">
+        <v>6.406995678401624</v>
+      </c>
+      <c r="J27" s="37">
+        <v>7.694047204389873</v>
+      </c>
+      <c r="K27" s="37">
+        <v>6.009375034513975</v>
+      </c>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37">
+        <v>6.569870738264415</v>
+      </c>
+      <c r="U27" s="37">
+        <v>6.921227119796796</v>
+      </c>
+      <c r="V27" s="37">
+        <v>6.047149369675353</v>
+      </c>
+      <c r="W27" s="37">
+        <v>6.280916910176423</v>
+      </c>
+      <c r="X27" s="47">
+        <v>7.152074053558773</v>
+      </c>
+      <c r="Y27" s="47">
+        <v>5.652468377683655</v>
+      </c>
+      <c r="Z27" s="37">
+        <v>6.037915872937453</v>
+      </c>
+      <c r="AA27" s="37">
+        <v>6.406995678401624</v>
+      </c>
+      <c r="AB27" s="51">
+        <v>7.694047204389873</v>
+      </c>
+      <c r="AC27" s="37">
+        <v>6.009375034513975</v>
+      </c>
+      <c r="AD27" s="37">
+        <f>STDEV(T27:AC27)</f>
+        <v>0.6202447805248597</v>
+      </c>
+      <c r="AE27" s="37">
+        <f>AVERAGE(T27:AC27)</f>
+        <v>6.477204035939833</v>
+      </c>
+      <c r="AF27" s="37">
+        <f>AE27-AD27</f>
+        <v>5.856959255414973</v>
+      </c>
+      <c r="AG27" s="37">
+        <f>AE27+AD27</f>
+        <v>7.097448816464692</v>
+      </c>
+      <c r="AH27" s="37">
+        <f>VAR(T27:AC27)</f>
+        <v>0.3847035877683313</v>
+      </c>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+    </row>
+    <row r="28" ht="14.35" customHeight="1">
+      <c r="A28" t="s" s="39">
+        <v>47</v>
+      </c>
+      <c r="B28" s="36">
+        <v>498.2659147571874</v>
+      </c>
+      <c r="C28" s="37">
+        <v>412.0992573950273</v>
+      </c>
+      <c r="D28" s="37">
+        <v>427.0884257637902</v>
+      </c>
+      <c r="E28" s="37">
+        <v>676.8463726654304</v>
+      </c>
+      <c r="F28" s="37">
+        <v>525.8844690397793</v>
+      </c>
+      <c r="G28" s="37">
+        <v>282.111333383148</v>
+      </c>
+      <c r="H28" s="37">
+        <v>464.0576880787004</v>
+      </c>
+      <c r="I28" s="37">
+        <v>503.2897087081887</v>
+      </c>
+      <c r="J28" s="37">
+        <v>669.4265795151857</v>
+      </c>
+      <c r="K28" s="37">
+        <v>354.2959675471093</v>
+      </c>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37">
+        <v>498.2659147571874</v>
+      </c>
+      <c r="U28" s="37">
+        <v>412.0992573950273</v>
+      </c>
+      <c r="V28" s="37">
+        <v>427.0884257637902</v>
+      </c>
+      <c r="W28" s="47">
+        <v>676.8463726654304</v>
+      </c>
+      <c r="X28" s="37">
+        <v>525.8844690397793</v>
+      </c>
+      <c r="Y28" s="47">
+        <v>282.111333383148</v>
+      </c>
+      <c r="Z28" s="37">
+        <v>464.0576880787004</v>
+      </c>
+      <c r="AA28" s="37">
+        <v>503.2897087081887</v>
+      </c>
+      <c r="AB28" s="37">
+        <v>669.4265795151857</v>
+      </c>
+      <c r="AC28" s="37">
+        <v>354.2959675471093</v>
+      </c>
+      <c r="AD28" s="52">
+        <f>STDEV(T28:AC28)</f>
+        <v>124.819972087145</v>
+      </c>
+      <c r="AE28" s="52">
+        <f>AVERAGE(T28:AC28)</f>
+        <v>481.3365716853547</v>
+      </c>
+      <c r="AF28" s="37">
+        <f>AE28-AD28</f>
+        <v>356.5165995982097</v>
+      </c>
+      <c r="AG28" s="37">
+        <f>AE28+AD28</f>
+        <v>606.1565437724996</v>
+      </c>
+      <c r="AH28" s="37">
+        <f>VAR(T28:AC28)</f>
+        <v>15580.025431835653</v>
+      </c>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AM28" s="37"/>
+      <c r="AN28" s="37"/>
+    </row>
+    <row r="29" ht="14.35" customHeight="1">
+      <c r="A29" t="s" s="39">
+        <v>73</v>
+      </c>
+      <c r="B29" s="36">
+        <v>0</v>
+      </c>
+      <c r="C29" s="37">
+        <v>0</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37">
+        <v>0</v>
+      </c>
+      <c r="G29" s="37">
+        <v>0</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37">
+        <v>0</v>
+      </c>
+      <c r="J29" s="37">
+        <v>0</v>
+      </c>
+      <c r="K29" s="37">
+        <v>0</v>
+      </c>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="41"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+    </row>
+    <row r="30" ht="14.35" customHeight="1">
+      <c r="A30" t="s" s="35">
+        <v>74</v>
+      </c>
+      <c r="B30" s="36">
+        <v>34</v>
+      </c>
+      <c r="C30" s="37">
+        <v>53</v>
+      </c>
+      <c r="D30" s="37">
+        <v>15</v>
+      </c>
+      <c r="E30" s="37">
+        <v>27</v>
+      </c>
+      <c r="F30" s="37">
+        <v>64</v>
+      </c>
+      <c r="G30" s="37">
+        <v>2</v>
+      </c>
+      <c r="H30" s="37">
+        <v>12</v>
+      </c>
+      <c r="I30" s="37">
+        <v>39</v>
+      </c>
+      <c r="J30" s="37">
+        <v>80</v>
+      </c>
+      <c r="K30" s="37">
+        <v>26</v>
+      </c>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+    </row>
+    <row r="31" ht="14.35" customHeight="1">
+      <c r="A31" t="s" s="35">
+        <v>75</v>
+      </c>
+      <c r="B31" s="36">
+        <v>29</v>
+      </c>
+      <c r="C31" s="37">
+        <v>12</v>
+      </c>
+      <c r="D31" s="37">
+        <v>55</v>
+      </c>
+      <c r="E31" s="37">
+        <v>43</v>
+      </c>
+      <c r="F31" s="37">
+        <v>10</v>
+      </c>
+      <c r="G31" s="37">
+        <v>75</v>
+      </c>
+      <c r="H31" s="37">
+        <v>70</v>
+      </c>
+      <c r="I31" s="37">
+        <v>46</v>
+      </c>
+      <c r="J31" s="37">
+        <v>5</v>
+      </c>
+      <c r="K31" s="37">
+        <v>60</v>
+      </c>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="37"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="37"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="37"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AM31" s="37"/>
+      <c r="AN31" s="37"/>
+    </row>
+    <row r="32" ht="14.35" customHeight="1">
+      <c r="A32" s="45"/>
+      <c r="B32" s="36">
+        <v>0</v>
+      </c>
+      <c r="C32" s="37">
+        <v>0</v>
+      </c>
+      <c r="D32" s="37">
+        <v>0</v>
+      </c>
+      <c r="E32" s="37">
+        <v>0</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0</v>
+      </c>
+      <c r="G32" s="37">
+        <v>0</v>
+      </c>
+      <c r="H32" s="37">
+        <v>0</v>
+      </c>
+      <c r="I32" s="37">
+        <v>0</v>
+      </c>
+      <c r="J32" s="37">
+        <v>0</v>
+      </c>
+      <c r="K32" s="37">
+        <v>0</v>
+      </c>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AM32" s="37"/>
+      <c r="AN32" s="37"/>
+    </row>
+    <row r="33" ht="14.35" customHeight="1">
+      <c r="A33" t="s" s="35">
+        <v>76</v>
+      </c>
+      <c r="B33" s="36">
+        <v>63</v>
+      </c>
+      <c r="C33" s="37">
+        <v>65</v>
+      </c>
+      <c r="D33" s="37">
+        <v>70</v>
+      </c>
+      <c r="E33" s="37">
+        <v>70</v>
+      </c>
+      <c r="F33" s="37">
+        <v>74</v>
+      </c>
+      <c r="G33" s="37">
+        <v>77</v>
+      </c>
+      <c r="H33" s="37">
+        <v>82</v>
+      </c>
+      <c r="I33" s="37">
+        <v>85</v>
+      </c>
+      <c r="J33" s="37">
+        <v>85</v>
+      </c>
+      <c r="K33" s="37">
+        <v>86</v>
+      </c>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>